--- a/NKE.xlsx
+++ b/NKE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlshe\Documents\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17DE2F4-1A88-4E17-90C9-3660F2236EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75DFBC8-C197-4DA6-9DE9-7A21B51344D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7EC169C9-317E-43F0-A9FE-A2A5C4455016}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
   <si>
     <t>Company</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Maturity</t>
   </si>
   <si>
-    <t>Discount</t>
-  </si>
-  <si>
     <t>NPV</t>
   </si>
   <si>
@@ -390,9 +387,6 @@
     <t>4Q23</t>
   </si>
   <si>
-    <t>10K22</t>
-  </si>
-  <si>
     <t>NA Footwear</t>
   </si>
   <si>
@@ -400,9 +394,6 @@
   </si>
   <si>
     <t>NA Equipment</t>
-  </si>
-  <si>
-    <t>finviz 6/13/23</t>
   </si>
   <si>
     <t>1Q24</t>
@@ -415,6 +406,18 @@
   </si>
   <si>
     <t>4Q24</t>
+  </si>
+  <si>
+    <t>2023 annual</t>
+  </si>
+  <si>
+    <t>5yr t-bond 2/21/24</t>
+  </si>
+  <si>
+    <t>koyfin 2/21/24</t>
+  </si>
+  <si>
+    <t>Discount (WACC)</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -654,6 +656,9 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,7 +819,7 @@
       <sheetData sheetId="0">
         <row r="12">
           <cell r="C12">
-            <v>4.1500000000000002E-2</v>
+            <v>4.2999999999999997E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1565,7 +1570,7 @@
   <dimension ref="B3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1607,10 +1612,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="14">
-        <v>1564.8</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>102</v>
+        <v>1532.1</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1619,7 +1624,7 @@
       </c>
       <c r="C6" s="14">
         <f>C5*C4</f>
-        <v>164726.49599999998</v>
+        <v>161284.16699999999</v>
       </c>
       <c r="D6" s="15"/>
     </row>
@@ -1628,11 +1633,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="14">
-        <f>6955+3847</f>
-        <v>10802</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>102</v>
+        <f>7919+2008</f>
+        <v>9927</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1640,11 +1645,11 @@
         <v>7</v>
       </c>
       <c r="C8" s="14">
-        <f>500+14+8925</f>
-        <v>9439</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>102</v>
+        <f>6+8930</f>
+        <v>8936</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -1653,7 +1658,7 @@
       </c>
       <c r="C9" s="17">
         <f>C6-C7+C8</f>
-        <v>163363.49599999998</v>
+        <v>160293.16699999999</v>
       </c>
       <c r="D9" s="18"/>
     </row>
@@ -1664,13 +1669,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28344E13-EFB0-4F1E-976B-AC98D9E8DF6E}">
-  <dimension ref="A1:OD68"/>
+  <dimension ref="A1:OD75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AI38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AN38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV3" sqref="AV3"/>
+      <selection pane="bottomRight" activeCell="BB67" sqref="BB67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1700,7 @@
     <col min="40" max="50" width="9.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="9.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="54" max="394" width="9.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="395" max="16384" width="9.21875" style="2"/>
   </cols>
@@ -1835,40 +1840,40 @@
         <v>58</v>
       </c>
       <c r="W2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="Y2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Z2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AA2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="24" t="s">
-        <v>72</v>
-      </c>
       <c r="AB2" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AD2" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE2" s="36" t="s">
+      <c r="AE2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF2" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG2" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH2" s="35" t="s">
         <v>109</v>
-      </c>
-      <c r="AF2" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG2" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH2" s="36" t="s">
-        <v>112</v>
       </c>
       <c r="AI2" s="32"/>
       <c r="AJ2" s="32"/>
@@ -1909,8 +1914,8 @@
     </row>
     <row r="3" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="34" t="s">
-        <v>105</v>
+      <c r="B3" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C3" s="14">
         <v>2518</v>
@@ -2043,22 +2048,22 @@
         <v>14628.699999999999</v>
       </c>
       <c r="AV3" s="14">
-        <f t="shared" ref="AU3:AV5" si="0">AU3*1.1</f>
+        <f t="shared" ref="AV3:AV5" si="0">AU3*1.1</f>
         <v>16091.57</v>
       </c>
       <c r="AW3" s="14">
-        <f t="shared" ref="AW3:AX3" si="1">AV3*1.05</f>
-        <v>16896.148499999999</v>
+        <f t="shared" ref="AW3:AX5" si="1">AV3*1.1</f>
+        <v>17700.727000000003</v>
       </c>
       <c r="AX3" s="14">
-        <f t="shared" si="1"/>
-        <v>17740.955924999998</v>
+        <f t="shared" ref="AX3:AX5" si="2">AW3*1.1</f>
+        <v>19470.799700000003</v>
       </c>
     </row>
     <row r="4" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="34" t="s">
-        <v>106</v>
+      <c r="B4" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="C4" s="14">
         <v>1317</v>
@@ -2151,11 +2156,11 @@
         <v>1668</v>
       </c>
       <c r="AG4" s="14">
-        <f t="shared" ref="AG4:AG5" si="2">AC4*0.98</f>
+        <f t="shared" ref="AG4:AG5" si="3">AC4*0.98</f>
         <v>1390.62</v>
       </c>
       <c r="AH4" s="14">
-        <f t="shared" ref="AH4:AH5" si="3">AD4*1.02</f>
+        <f t="shared" ref="AH4:AH5" si="4">AD4*1.02</f>
         <v>1375.98</v>
       </c>
       <c r="AN4" s="14">
@@ -2163,50 +2168,50 @@
         <v>4886</v>
       </c>
       <c r="AO4" s="14">
-        <f t="shared" ref="AO4:AO5" si="4">SUM(G4:J4)</f>
+        <f t="shared" ref="AO4:AO5" si="5">SUM(G4:J4)</f>
         <v>4938</v>
       </c>
       <c r="AP4" s="14">
-        <f t="shared" ref="AP4:AP5" si="5">SUM(K4:N4)</f>
+        <f t="shared" ref="AP4:AP5" si="6">SUM(K4:N4)</f>
         <v>5260</v>
       </c>
       <c r="AQ4" s="14">
-        <f t="shared" ref="AQ4:AQ5" si="6">SUM(O4:R4)</f>
+        <f t="shared" ref="AQ4:AQ5" si="7">SUM(O4:R4)</f>
         <v>4639</v>
       </c>
       <c r="AR4" s="14">
-        <f t="shared" ref="AR4:AR5" si="7">SUM(S4:V4)</f>
+        <f t="shared" ref="AR4:AR5" si="8">SUM(S4:V4)</f>
         <v>5028</v>
       </c>
       <c r="AS4" s="14">
-        <f t="shared" ref="AS4:AS5" si="8">SUM(W4:Z4)</f>
+        <f t="shared" ref="AS4:AS5" si="9">SUM(W4:Z4)</f>
         <v>5492</v>
       </c>
       <c r="AT4" s="14">
-        <f t="shared" ref="AT4:AT5" si="9">SUM(AA4:AD4)</f>
+        <f t="shared" ref="AT4:AT5" si="10">SUM(AA4:AD4)</f>
         <v>5947</v>
       </c>
       <c r="AU4" s="14">
-        <f t="shared" ref="AU4:AU5" si="10">SUM(AE4:AH4)</f>
+        <f t="shared" ref="AU4:AU5" si="11">SUM(AE4:AH4)</f>
         <v>5913.6</v>
       </c>
       <c r="AV4" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AV4:AX5" si="12">AU4*1.1</f>
         <v>6504.9600000000009</v>
       </c>
       <c r="AW4" s="14">
-        <f t="shared" ref="AW4:AX4" si="11">AV4*1.05</f>
-        <v>6830.2080000000014</v>
+        <f t="shared" si="1"/>
+        <v>7155.4560000000019</v>
       </c>
       <c r="AX4" s="14">
-        <f t="shared" si="11"/>
-        <v>7171.7184000000016</v>
+        <f t="shared" si="2"/>
+        <v>7871.0016000000023</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
-        <v>107</v>
+      <c r="B5" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="C5" s="14">
         <v>196</v>
@@ -2299,11 +2304,11 @@
         <v>200</v>
       </c>
       <c r="AG5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168.56</v>
       </c>
       <c r="AH5" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>202.98</v>
       </c>
       <c r="AN5" s="14">
@@ -2311,50 +2316,50 @@
         <v>646</v>
       </c>
       <c r="AO5" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>595</v>
       </c>
       <c r="AP5" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>597</v>
       </c>
       <c r="AQ5" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>516</v>
       </c>
       <c r="AR5" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>507</v>
       </c>
       <c r="AS5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>633</v>
       </c>
       <c r="AT5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>764</v>
       </c>
       <c r="AU5" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>782.54</v>
       </c>
       <c r="AV5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>860.79399999999998</v>
       </c>
       <c r="AW5" s="14">
-        <f t="shared" ref="AW5:AX5" si="12">AV5*1.05</f>
-        <v>903.83370000000002</v>
+        <f t="shared" si="1"/>
+        <v>946.87340000000006</v>
       </c>
       <c r="AX5" s="14">
-        <f t="shared" si="12"/>
-        <v>949.02538500000003</v>
+        <f t="shared" si="2"/>
+        <v>1041.5607400000001</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:Y6" si="13">SUM(C3:C5)</f>
@@ -2522,11 +2527,11 @@
       </c>
       <c r="AW6" s="14">
         <f t="shared" si="15"/>
-        <v>24630.190200000001</v>
+        <v>25803.056400000005</v>
       </c>
       <c r="AX6" s="14">
         <f t="shared" si="15"/>
-        <v>25861.699710000001</v>
+        <v>28383.362040000007</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2568,7 +2573,7 @@
     <row r="8" spans="1:50" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="B8" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -2720,11 +2725,11 @@
       </c>
       <c r="AW8" s="30">
         <f t="shared" ref="AW8" si="28">AW6/AV6-1</f>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="AX8" s="30">
         <f t="shared" ref="AX8" si="29">AX6/AW6-1</f>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2758,13 +2763,13 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
     </row>
     <row r="10" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="14">
         <v>1457</v>
@@ -2897,7 +2902,7 @@
         <v>8634.26</v>
       </c>
       <c r="AV10" s="14">
-        <f t="shared" ref="AU10:AX10" si="40">AU10*1.05</f>
+        <f t="shared" ref="AV10:AX10" si="40">AU10*1.05</f>
         <v>9065.973</v>
       </c>
       <c r="AW10" s="14">
@@ -2912,7 +2917,7 @@
     <row r="11" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="14">
         <v>684</v>
@@ -3045,7 +3050,7 @@
         <v>4467.88</v>
       </c>
       <c r="AV11" s="14">
-        <f t="shared" ref="AU11:AX11" si="41">AU11*1.05</f>
+        <f t="shared" ref="AV11:AX11" si="41">AU11*1.05</f>
         <v>4691.2740000000003</v>
       </c>
       <c r="AW11" s="14">
@@ -3060,7 +3065,7 @@
     <row r="12" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="14">
         <v>121</v>
@@ -3193,7 +3198,7 @@
         <v>672.94</v>
       </c>
       <c r="AV12" s="14">
-        <f t="shared" ref="AU12:AX12" si="42">AU12*1.05</f>
+        <f t="shared" ref="AV12:AX12" si="42">AU12*1.05</f>
         <v>706.5870000000001</v>
       </c>
       <c r="AW12" s="14">
@@ -3208,7 +3213,7 @@
     <row r="13" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="14">
         <f t="shared" ref="C13:Y13" si="43">SUM(C10:C12)</f>
@@ -3416,8 +3421,8 @@
       <c r="AD14" s="31"/>
       <c r="AE14" s="31"/>
       <c r="AF14" s="31"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
       <c r="AN14" s="14"/>
       <c r="AO14" s="14"/>
       <c r="AP14" s="14"/>
@@ -3428,7 +3433,7 @@
     <row r="15" spans="1:50" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -3619,13 +3624,13 @@
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
     </row>
     <row r="17" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="14">
         <v>710</v>
@@ -3758,7 +3763,7 @@
         <v>5476.8</v>
       </c>
       <c r="AV17" s="14">
-        <f t="shared" ref="AU17:AX17" si="75">AU17*1.05</f>
+        <f t="shared" ref="AV17:AX17" si="75">AU17*1.05</f>
         <v>5750.64</v>
       </c>
       <c r="AW17" s="14">
@@ -3773,7 +3778,7 @@
     <row r="18" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="14">
         <v>269</v>
@@ -3906,7 +3911,7 @@
         <v>1768.54</v>
       </c>
       <c r="AV18" s="14">
-        <f t="shared" ref="AU18:AX18" si="76">AU18*1.05</f>
+        <f t="shared" ref="AV18:AX18" si="76">AU18*1.05</f>
         <v>1856.9670000000001</v>
       </c>
       <c r="AW18" s="14">
@@ -3921,7 +3926,7 @@
     <row r="19" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="14">
         <v>41</v>
@@ -4054,7 +4059,7 @@
         <v>152.97999999999999</v>
       </c>
       <c r="AV19" s="14">
-        <f t="shared" ref="AU19:AX19" si="77">AU19*1.05</f>
+        <f t="shared" ref="AV19:AX19" si="77">AU19*1.05</f>
         <v>160.62899999999999</v>
       </c>
       <c r="AW19" s="14">
@@ -4069,7 +4074,7 @@
     <row r="20" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="14">
         <f t="shared" ref="C20:Y20" si="78">SUM(C17:C19)</f>
@@ -4277,8 +4282,8 @@
       <c r="AD21" s="31"/>
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
       <c r="AN21" s="14"/>
       <c r="AO21" s="14"/>
       <c r="AP21" s="14"/>
@@ -4289,7 +4294,7 @@
     <row r="22" spans="1:50" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -4480,13 +4485,13 @@
       <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
     </row>
     <row r="24" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="14">
         <v>787</v>
@@ -4619,7 +4624,7 @@
         <v>4816.7800000000007</v>
       </c>
       <c r="AV24" s="14">
-        <f t="shared" ref="AU24:AX24" si="106">AU24*1.05</f>
+        <f t="shared" ref="AV24:AX24" si="106">AU24*1.05</f>
         <v>5057.6190000000006</v>
       </c>
       <c r="AW24" s="14">
@@ -4634,7 +4639,7 @@
     <row r="25" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="14">
         <v>279</v>
@@ -4767,7 +4772,7 @@
         <v>1624.0400000000002</v>
       </c>
       <c r="AV25" s="14">
-        <f t="shared" ref="AU25:AX25" si="107">AU25*1.05</f>
+        <f t="shared" ref="AV25:AX25" si="107">AU25*1.05</f>
         <v>1705.2420000000002</v>
       </c>
       <c r="AW25" s="14">
@@ -4782,7 +4787,7 @@
     <row r="26" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="14">
         <v>65</v>
@@ -4915,7 +4920,7 @@
         <v>235.07999999999998</v>
       </c>
       <c r="AV26" s="14">
-        <f t="shared" ref="AU26:AX26" si="108">AU26*1.05</f>
+        <f t="shared" ref="AV26:AX26" si="108">AU26*1.05</f>
         <v>246.834</v>
       </c>
       <c r="AW26" s="14">
@@ -4930,7 +4935,7 @@
     <row r="27" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="14">
         <f t="shared" ref="C27:Y27" si="109">SUM(C24:C26)</f>
@@ -5138,8 +5143,8 @@
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
       <c r="AF28" s="31"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
       <c r="AN28" s="14"/>
       <c r="AO28" s="14"/>
       <c r="AP28" s="14"/>
@@ -5155,7 +5160,7 @@
     <row r="29" spans="1:50" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
@@ -5346,13 +5351,13 @@
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="37"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
     </row>
     <row r="31" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="14">
         <v>15</v>
@@ -5485,7 +5490,7 @@
         <v>51.04</v>
       </c>
       <c r="AV31" s="14">
-        <f t="shared" ref="AU31:AX31" si="128">AU31*1.05</f>
+        <f t="shared" ref="AV31:AX31" si="128">AU31*1.05</f>
         <v>53.591999999999999</v>
       </c>
       <c r="AW31" s="14">
@@ -5528,8 +5533,8 @@
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
       <c r="AF32" s="14"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="37"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="36"/>
       <c r="AN32" s="14"/>
       <c r="AO32" s="14"/>
       <c r="AP32" s="14"/>
@@ -5540,7 +5545,7 @@
     <row r="33" spans="1:50" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
       <c r="B33" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -5737,7 +5742,7 @@
     <row r="35" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="14">
         <v>574</v>
@@ -5870,7 +5875,7 @@
         <v>2304.48</v>
       </c>
       <c r="AV35" s="14">
-        <f t="shared" ref="AU35:AX35" si="152">AU35*1.05</f>
+        <f t="shared" ref="AV35:AX35" si="152">AU35*1.05</f>
         <v>2419.7040000000002</v>
       </c>
       <c r="AW35" s="14">
@@ -5885,7 +5890,7 @@
     <row r="36" spans="1:50" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="14">
         <v>28</v>
@@ -6014,11 +6019,11 @@
         <v>27</v>
       </c>
       <c r="AU36" s="14">
-        <f t="shared" ref="AU35:AU36" si="153">SUM(AE36:AH36)</f>
+        <f t="shared" ref="AU36" si="153">SUM(AE36:AH36)</f>
         <v>21.04</v>
       </c>
       <c r="AV36" s="14">
-        <f t="shared" ref="AU36:AX36" si="154">AU36*1.05</f>
+        <f t="shared" ref="AV36:AX36" si="154">AU36*1.05</f>
         <v>22.091999999999999</v>
       </c>
       <c r="AW36" s="14">
@@ -6068,7 +6073,7 @@
     <row r="38" spans="1:50" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="27"/>
       <c r="B38" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
@@ -6231,7 +6236,7 @@
     <row r="39" spans="1:50" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
@@ -6423,7 +6428,7 @@
     <row r="41" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="21">
         <f t="shared" ref="C41:Y41" si="172">C6+C13+C20+C27+C31+C35+C36</f>
@@ -6591,11 +6596,11 @@
       </c>
       <c r="AW41" s="21">
         <f t="shared" si="174"/>
-        <v>57954.200850000008</v>
+        <v>59127.067050000012</v>
       </c>
       <c r="AX41" s="21">
         <f t="shared" si="174"/>
-        <v>60851.910892500011</v>
+        <v>63373.573222500017</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
@@ -6911,16 +6916,16 @@
         <v>23093.170000000006</v>
       </c>
       <c r="AV43" s="21">
-        <f t="shared" ref="AT43:AX43" si="183">+AV41-AV42</f>
+        <f t="shared" ref="AV43:AX43" si="183">+AV41-AV42</f>
         <v>25314.070499999983</v>
       </c>
       <c r="AW43" s="21">
         <f t="shared" si="183"/>
-        <v>26579.774025000006</v>
+        <v>27752.64022500001</v>
       </c>
       <c r="AX43" s="21">
         <f t="shared" si="183"/>
-        <v>27908.76272625001</v>
+        <v>30430.425056250016</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
@@ -7379,7 +7384,7 @@
         <v>16377</v>
       </c>
       <c r="AU46" s="21">
-        <f t="shared" ref="AT46:AX46" si="193">+AU44+AU45</f>
+        <f t="shared" ref="AU46:AX46" si="193">+AU44+AU45</f>
         <v>16678.330000000002</v>
       </c>
       <c r="AV46" s="21">
@@ -7557,7 +7562,7 @@
         <v>5915</v>
       </c>
       <c r="AU47" s="21">
-        <f t="shared" ref="AT47:AX47" si="201">+AU43-AU46</f>
+        <f t="shared" ref="AU47:AX47" si="201">+AU43-AU46</f>
         <v>6414.8400000000038</v>
       </c>
       <c r="AV47" s="21">
@@ -7566,16 +7571,16 @@
       </c>
       <c r="AW47" s="21">
         <f t="shared" si="201"/>
-        <v>8717.2825950000042</v>
+        <v>9890.1487950000082</v>
       </c>
       <c r="AX47" s="21">
         <f t="shared" si="201"/>
-        <v>9153.1467247500077</v>
+        <v>11674.809054750014</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2">
         <f>7</f>
@@ -7728,7 +7733,7 @@
         <v>94</v>
       </c>
       <c r="AV48" s="2">
-        <f t="shared" ref="AU48:AX49" si="202">AU48*1.05</f>
+        <f t="shared" ref="AV48:AX49" si="202">AU48*1.05</f>
         <v>98.7</v>
       </c>
       <c r="AW48" s="14">
@@ -7742,7 +7747,7 @@
     </row>
     <row r="49" spans="1:394" x14ac:dyDescent="0.25">
       <c r="B49" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="2">
         <v>-62</v>
@@ -8046,7 +8051,7 @@
         <v>6201</v>
       </c>
       <c r="AU50" s="2">
-        <f t="shared" ref="AT50:AX50" si="206">+AU47-AU48-AU49</f>
+        <f t="shared" ref="AU50:AX50" si="206">+AU47-AU48-AU49</f>
         <v>6255.8400000000038</v>
       </c>
       <c r="AV50" s="2">
@@ -8055,11 +8060,11 @@
       </c>
       <c r="AW50" s="2">
         <f t="shared" si="206"/>
-        <v>8541.9850950000036</v>
+        <v>9714.8512950000077</v>
       </c>
       <c r="AX50" s="2">
         <f t="shared" si="206"/>
-        <v>8969.0843497500082</v>
+        <v>11490.746679750015</v>
       </c>
     </row>
     <row r="51" spans="1:394" x14ac:dyDescent="0.25">
@@ -8197,7 +8202,7 @@
         <v>894.75253766393371</v>
       </c>
       <c r="AV51" s="2">
-        <f t="shared" ref="AU51:AV51" si="207">AV50*0.21</f>
+        <f t="shared" ref="AV51" si="207">AV50*0.21</f>
         <v>1708.3970189999964</v>
       </c>
       <c r="AW51" s="14">
@@ -8371,7 +8376,7 @@
         <v>5070</v>
       </c>
       <c r="AU52" s="21">
-        <f t="shared" ref="AT52:AX52" si="212">AU50-AU51</f>
+        <f t="shared" ref="AU52:AX52" si="212">AU50-AU51</f>
         <v>5361.0874623360705</v>
       </c>
       <c r="AV52" s="21">
@@ -8380,1387 +8385,1387 @@
       </c>
       <c r="AW52" s="21">
         <f t="shared" si="212"/>
-        <v>6748.1682250500071</v>
+        <v>7921.0344250500111</v>
       </c>
       <c r="AX52" s="21">
         <f t="shared" si="212"/>
-        <v>7085.5766363025123</v>
+        <v>9607.2389663025187</v>
       </c>
       <c r="AY52" s="21">
         <f t="shared" ref="AY52:DJ52" si="213">AX52*(1+$BB$60)</f>
-        <v>7014.7208699394869</v>
+        <v>9511.1665766394926</v>
       </c>
       <c r="AZ52" s="21">
         <f t="shared" si="213"/>
-        <v>6944.5736612400915</v>
+        <v>9416.0549108730975</v>
       </c>
       <c r="BA52" s="21">
         <f t="shared" si="213"/>
-        <v>6875.1279246276908</v>
+        <v>9321.8943617643672</v>
       </c>
       <c r="BB52" s="21">
         <f t="shared" si="213"/>
-        <v>6806.3766453814142</v>
+        <v>9228.675418146724</v>
       </c>
       <c r="BC52" s="21">
         <f t="shared" si="213"/>
-        <v>6738.3128789275997</v>
+        <v>9136.3886639652574</v>
       </c>
       <c r="BD52" s="21">
         <f t="shared" si="213"/>
-        <v>6670.9297501383235</v>
+        <v>9045.0247773256051</v>
       </c>
       <c r="BE52" s="21">
         <f t="shared" si="213"/>
-        <v>6604.2204526369405</v>
+        <v>8954.5745295523484</v>
       </c>
       <c r="BF52" s="21">
         <f t="shared" si="213"/>
-        <v>6538.1782481105711</v>
+        <v>8865.028784256825</v>
       </c>
       <c r="BG52" s="21">
         <f t="shared" si="213"/>
-        <v>6472.7964656294653</v>
+        <v>8776.378496414256</v>
       </c>
       <c r="BH52" s="21">
         <f t="shared" si="213"/>
-        <v>6408.0685009731706</v>
+        <v>8688.6147114501127</v>
       </c>
       <c r="BI52" s="21">
         <f t="shared" si="213"/>
-        <v>6343.9878159634391</v>
+        <v>8601.7285643356117</v>
       </c>
       <c r="BJ52" s="21">
         <f t="shared" si="213"/>
-        <v>6280.5479378038044</v>
+        <v>8515.7112786922553</v>
       </c>
       <c r="BK52" s="21">
         <f t="shared" si="213"/>
-        <v>6217.742458425766</v>
+        <v>8430.5541659053324</v>
       </c>
       <c r="BL52" s="21">
         <f t="shared" si="213"/>
-        <v>6155.565033841508</v>
+        <v>8346.2486242462783</v>
       </c>
       <c r="BM52" s="21">
         <f t="shared" si="213"/>
-        <v>6094.009383503093</v>
+        <v>8262.7861380038157</v>
       </c>
       <c r="BN52" s="21">
         <f t="shared" si="213"/>
-        <v>6033.0692896680621</v>
+        <v>8180.1582766237771</v>
       </c>
       <c r="BO52" s="21">
         <f t="shared" si="213"/>
-        <v>5972.7385967713817</v>
+        <v>8098.3566938575395</v>
       </c>
       <c r="BP52" s="21">
         <f t="shared" si="213"/>
-        <v>5913.0112108036683</v>
+        <v>8017.3731269189639</v>
       </c>
       <c r="BQ52" s="21">
         <f t="shared" si="213"/>
-        <v>5853.8810986956314</v>
+        <v>7937.1993956497745</v>
       </c>
       <c r="BR52" s="21">
         <f t="shared" si="213"/>
-        <v>5795.342287708675</v>
+        <v>7857.8274016932764</v>
       </c>
       <c r="BS52" s="21">
         <f t="shared" si="213"/>
-        <v>5737.3888648315879</v>
+        <v>7779.249127676344</v>
       </c>
       <c r="BT52" s="21">
         <f t="shared" si="213"/>
-        <v>5680.0149761832718</v>
+        <v>7701.45663639958</v>
       </c>
       <c r="BU52" s="21">
         <f t="shared" si="213"/>
-        <v>5623.2148264214393</v>
+        <v>7624.442070035584</v>
       </c>
       <c r="BV52" s="21">
         <f t="shared" si="213"/>
-        <v>5566.9826781572247</v>
+        <v>7548.1976493352286</v>
       </c>
       <c r="BW52" s="21">
         <f t="shared" si="213"/>
-        <v>5511.3128513756519</v>
+        <v>7472.7156728418759</v>
       </c>
       <c r="BX52" s="21">
         <f t="shared" si="213"/>
-        <v>5456.1997228618957</v>
+        <v>7397.9885161134571</v>
       </c>
       <c r="BY52" s="21">
         <f t="shared" si="213"/>
-        <v>5401.6377256332771</v>
+        <v>7324.0086309523222</v>
       </c>
       <c r="BZ52" s="21">
         <f t="shared" si="213"/>
-        <v>5347.6213483769443</v>
+        <v>7250.7685446427986</v>
       </c>
       <c r="CA52" s="21">
         <f t="shared" si="213"/>
-        <v>5294.1451348931751</v>
+        <v>7178.2608591963708</v>
       </c>
       <c r="CB52" s="21">
         <f t="shared" si="213"/>
-        <v>5241.2036835442432</v>
+        <v>7106.4782506044066</v>
       </c>
       <c r="CC52" s="21">
         <f t="shared" si="213"/>
-        <v>5188.7916467088007</v>
+        <v>7035.4134680983625</v>
       </c>
       <c r="CD52" s="21">
         <f t="shared" si="213"/>
-        <v>5136.9037302417128</v>
+        <v>6965.0593334173791</v>
       </c>
       <c r="CE52" s="21">
         <f t="shared" si="213"/>
-        <v>5085.5346929392954</v>
+        <v>6895.408740083205</v>
       </c>
       <c r="CF52" s="21">
         <f t="shared" si="213"/>
-        <v>5034.6793460099025</v>
+        <v>6826.4546526823733</v>
       </c>
       <c r="CG52" s="21">
         <f t="shared" si="213"/>
-        <v>4984.332552549803</v>
+        <v>6758.1901061555491</v>
       </c>
       <c r="CH52" s="21">
         <f t="shared" si="213"/>
-        <v>4934.4892270243054</v>
+        <v>6690.6082050939931</v>
       </c>
       <c r="CI52" s="21">
         <f t="shared" si="213"/>
-        <v>4885.1443347540626</v>
+        <v>6623.7021230430528</v>
       </c>
       <c r="CJ52" s="21">
         <f t="shared" si="213"/>
-        <v>4836.2928914065224</v>
+        <v>6557.4651018126224</v>
       </c>
       <c r="CK52" s="21">
         <f t="shared" si="213"/>
-        <v>4787.929962492457</v>
+        <v>6491.8904507944962</v>
       </c>
       <c r="CL52" s="21">
         <f t="shared" si="213"/>
-        <v>4740.0506628675321</v>
+        <v>6426.9715462865515</v>
       </c>
       <c r="CM52" s="21">
         <f t="shared" si="213"/>
-        <v>4692.6501562388567</v>
+        <v>6362.7018308236857</v>
       </c>
       <c r="CN52" s="21">
         <f t="shared" si="213"/>
-        <v>4645.723654676468</v>
+        <v>6299.0748125154487</v>
       </c>
       <c r="CO52" s="21">
         <f t="shared" si="213"/>
-        <v>4599.2664181297032</v>
+        <v>6236.0840643902939</v>
       </c>
       <c r="CP52" s="21">
         <f t="shared" si="213"/>
-        <v>4553.273753948406</v>
+        <v>6173.7232237463904</v>
       </c>
       <c r="CQ52" s="21">
         <f t="shared" si="213"/>
-        <v>4507.7410164089215</v>
+        <v>6111.9859915089264</v>
       </c>
       <c r="CR52" s="21">
         <f t="shared" si="213"/>
-        <v>4462.6636062448324</v>
+        <v>6050.8661315938371</v>
       </c>
       <c r="CS52" s="21">
         <f t="shared" si="213"/>
-        <v>4418.0369701823838</v>
+        <v>5990.3574702778988</v>
       </c>
       <c r="CT52" s="21">
         <f t="shared" si="213"/>
-        <v>4373.8566004805598</v>
+        <v>5930.4538955751195</v>
       </c>
       <c r="CU52" s="21">
         <f t="shared" si="213"/>
-        <v>4330.118034475754</v>
+        <v>5871.1493566193685</v>
       </c>
       <c r="CV52" s="21">
         <f t="shared" si="213"/>
-        <v>4286.816854130996</v>
+        <v>5812.4378630531746</v>
       </c>
       <c r="CW52" s="21">
         <f t="shared" si="213"/>
-        <v>4243.9486855896857</v>
+        <v>5754.3134844226424</v>
       </c>
       <c r="CX52" s="21">
         <f t="shared" si="213"/>
-        <v>4201.5091987337892</v>
+        <v>5696.7703495784162</v>
       </c>
       <c r="CY52" s="21">
         <f t="shared" si="213"/>
-        <v>4159.4941067464515</v>
+        <v>5639.8026460826322</v>
       </c>
       <c r="CZ52" s="21">
         <f t="shared" si="213"/>
-        <v>4117.8991656789867</v>
+        <v>5583.404619621806</v>
       </c>
       <c r="DA52" s="21">
         <f t="shared" si="213"/>
-        <v>4076.7201740221967</v>
+        <v>5527.570573425588</v>
       </c>
       <c r="DB52" s="21">
         <f t="shared" si="213"/>
-        <v>4035.9529722819748</v>
+        <v>5472.294867691332</v>
       </c>
       <c r="DC52" s="21">
         <f t="shared" si="213"/>
-        <v>3995.5934425591549</v>
+        <v>5417.5719190144182</v>
       </c>
       <c r="DD52" s="21">
         <f t="shared" si="213"/>
-        <v>3955.6375081335632</v>
+        <v>5363.3961998242739</v>
       </c>
       <c r="DE52" s="21">
         <f t="shared" si="213"/>
-        <v>3916.0811330522274</v>
+        <v>5309.7622378260312</v>
       </c>
       <c r="DF52" s="21">
         <f t="shared" si="213"/>
-        <v>3876.920321721705</v>
+        <v>5256.6646154477712</v>
       </c>
       <c r="DG52" s="21">
         <f t="shared" si="213"/>
-        <v>3838.1511185044878</v>
+        <v>5204.0979692932933</v>
       </c>
       <c r="DH52" s="21">
         <f t="shared" si="213"/>
-        <v>3799.7696073194429</v>
+        <v>5152.0569896003599</v>
       </c>
       <c r="DI52" s="21">
         <f t="shared" si="213"/>
-        <v>3761.7719112462482</v>
+        <v>5100.5364197043564</v>
       </c>
       <c r="DJ52" s="21">
         <f t="shared" si="213"/>
-        <v>3724.1541921337857</v>
+        <v>5049.5310555073129</v>
       </c>
       <c r="DK52" s="21">
         <f t="shared" ref="DK52:FV52" si="214">DJ52*(1+$BB$60)</f>
-        <v>3686.9126502124477</v>
+        <v>4999.0357449522398</v>
       </c>
       <c r="DL52" s="21">
         <f t="shared" si="214"/>
-        <v>3650.0435237103234</v>
+        <v>4949.0453875027169</v>
       </c>
       <c r="DM52" s="21">
         <f t="shared" si="214"/>
-        <v>3613.54308847322</v>
+        <v>4899.5549336276899</v>
       </c>
       <c r="DN52" s="21">
         <f t="shared" si="214"/>
-        <v>3577.4076575884878</v>
+        <v>4850.5593842914132</v>
       </c>
       <c r="DO52" s="21">
         <f t="shared" si="214"/>
-        <v>3541.6335810126029</v>
+        <v>4802.0537904484991</v>
       </c>
       <c r="DP52" s="21">
         <f t="shared" si="214"/>
-        <v>3506.217245202477</v>
+        <v>4754.0332525440144</v>
       </c>
       <c r="DQ52" s="21">
         <f t="shared" si="214"/>
-        <v>3471.1550727504523</v>
+        <v>4706.4929200185743</v>
       </c>
       <c r="DR52" s="21">
         <f t="shared" si="214"/>
-        <v>3436.4435220229479</v>
+        <v>4659.4279908183889</v>
       </c>
       <c r="DS52" s="21">
         <f t="shared" si="214"/>
-        <v>3402.0790868027184</v>
+        <v>4612.8337109102049</v>
       </c>
       <c r="DT52" s="21">
         <f t="shared" si="214"/>
-        <v>3368.0582959346912</v>
+        <v>4566.7053738011027</v>
       </c>
       <c r="DU52" s="21">
         <f t="shared" si="214"/>
-        <v>3334.3777129753444</v>
+        <v>4521.0383200630913</v>
       </c>
       <c r="DV52" s="21">
         <f t="shared" si="214"/>
-        <v>3301.0339358455908</v>
+        <v>4475.8279368624608</v>
       </c>
       <c r="DW52" s="21">
         <f t="shared" si="214"/>
-        <v>3268.0235964871349</v>
+        <v>4431.0696574938365</v>
       </c>
       <c r="DX52" s="21">
         <f t="shared" si="214"/>
-        <v>3235.3433605222635</v>
+        <v>4386.7589609188981</v>
       </c>
       <c r="DY52" s="21">
         <f t="shared" si="214"/>
-        <v>3202.989926917041</v>
+        <v>4342.891371309709</v>
       </c>
       <c r="DZ52" s="21">
         <f t="shared" si="214"/>
-        <v>3170.9600276478704</v>
+        <v>4299.4624575966118</v>
       </c>
       <c r="EA52" s="21">
         <f t="shared" si="214"/>
-        <v>3139.2504273713917</v>
+        <v>4256.4678330206452</v>
       </c>
       <c r="EB52" s="21">
         <f t="shared" si="214"/>
-        <v>3107.8579230976775</v>
+        <v>4213.9031546904389</v>
       </c>
       <c r="EC52" s="21">
         <f t="shared" si="214"/>
-        <v>3076.7793438667009</v>
+        <v>4171.7641231435346</v>
       </c>
       <c r="ED52" s="21">
         <f t="shared" si="214"/>
-        <v>3046.0115504280338</v>
+        <v>4130.0464819120989</v>
       </c>
       <c r="EE52" s="21">
         <f t="shared" si="214"/>
-        <v>3015.5514349237533</v>
+        <v>4088.746017092978</v>
       </c>
       <c r="EF52" s="21">
         <f t="shared" si="214"/>
-        <v>2985.3959205745159</v>
+        <v>4047.8585569220481</v>
       </c>
       <c r="EG52" s="21">
         <f t="shared" si="214"/>
-        <v>2955.5419613687709</v>
+        <v>4007.3799713528274</v>
       </c>
       <c r="EH52" s="21">
         <f t="shared" si="214"/>
-        <v>2925.9865417550832</v>
+        <v>3967.306171639299</v>
       </c>
       <c r="EI52" s="21">
         <f t="shared" si="214"/>
-        <v>2896.7266763375324</v>
+        <v>3927.633109922906</v>
       </c>
       <c r="EJ52" s="21">
         <f t="shared" si="214"/>
-        <v>2867.759409574157</v>
+        <v>3888.3567788236769</v>
       </c>
       <c r="EK52" s="21">
         <f t="shared" si="214"/>
-        <v>2839.0818154784156</v>
+        <v>3849.4732110354403</v>
       </c>
       <c r="EL52" s="21">
         <f t="shared" si="214"/>
-        <v>2810.6909973236316</v>
+        <v>3810.9784789250857</v>
       </c>
       <c r="EM52" s="21">
         <f t="shared" si="214"/>
-        <v>2782.5840873503953</v>
+        <v>3772.8686941358346</v>
       </c>
       <c r="EN52" s="21">
         <f t="shared" si="214"/>
-        <v>2754.7582464768911</v>
+        <v>3735.1400071944763</v>
       </c>
       <c r="EO52" s="21">
         <f t="shared" si="214"/>
-        <v>2727.2106640121224</v>
+        <v>3697.7886071225316</v>
       </c>
       <c r="EP52" s="21">
         <f t="shared" si="214"/>
-        <v>2699.938557372001</v>
+        <v>3660.8107210513062</v>
       </c>
       <c r="EQ52" s="21">
         <f t="shared" si="214"/>
-        <v>2672.9391717982808</v>
+        <v>3624.2026138407932</v>
       </c>
       <c r="ER52" s="21">
         <f t="shared" si="214"/>
-        <v>2646.2097800802981</v>
+        <v>3587.9605877023851</v>
       </c>
       <c r="ES52" s="21">
         <f t="shared" si="214"/>
-        <v>2619.7476822794952</v>
+        <v>3552.0809818253611</v>
       </c>
       <c r="ET52" s="21">
         <f t="shared" si="214"/>
-        <v>2593.5502054567</v>
+        <v>3516.5601720071072</v>
       </c>
       <c r="EU52" s="21">
         <f t="shared" si="214"/>
-        <v>2567.6147034021328</v>
+        <v>3481.394570287036</v>
       </c>
       <c r="EV52" s="21">
         <f t="shared" si="214"/>
-        <v>2541.9385563681117</v>
+        <v>3446.5806245841654</v>
       </c>
       <c r="EW52" s="21">
         <f t="shared" si="214"/>
-        <v>2516.5191708044304</v>
+        <v>3412.1148183383239</v>
       </c>
       <c r="EX52" s="21">
         <f t="shared" si="214"/>
-        <v>2491.353979096386</v>
+        <v>3377.9936701549404</v>
       </c>
       <c r="EY52" s="21">
         <f t="shared" si="214"/>
-        <v>2466.4404393054219</v>
+        <v>3344.2137334533909</v>
       </c>
       <c r="EZ52" s="21">
         <f t="shared" si="214"/>
-        <v>2441.7760349123678</v>
+        <v>3310.7715961188569</v>
       </c>
       <c r="FA52" s="21">
         <f t="shared" si="214"/>
-        <v>2417.3582745632439</v>
+        <v>3277.6638801576682</v>
       </c>
       <c r="FB52" s="21">
         <f t="shared" si="214"/>
-        <v>2393.1846918176116</v>
+        <v>3244.8872413560916</v>
       </c>
       <c r="FC52" s="21">
         <f t="shared" si="214"/>
-        <v>2369.2528448994353</v>
+        <v>3212.4383689425308</v>
       </c>
       <c r="FD52" s="21">
         <f t="shared" si="214"/>
-        <v>2345.560316450441</v>
+        <v>3180.3139852531053</v>
       </c>
       <c r="FE52" s="21">
         <f t="shared" si="214"/>
-        <v>2322.1047132859367</v>
+        <v>3148.5108454005745</v>
       </c>
       <c r="FF52" s="21">
         <f t="shared" si="214"/>
-        <v>2298.8836661530772</v>
+        <v>3117.0257369465685</v>
       </c>
       <c r="FG52" s="21">
         <f t="shared" si="214"/>
-        <v>2275.8948294915463</v>
+        <v>3085.8554795771029</v>
       </c>
       <c r="FH52" s="21">
         <f t="shared" si="214"/>
-        <v>2253.1358811966306</v>
+        <v>3054.9969247813319</v>
       </c>
       <c r="FI52" s="21">
         <f t="shared" si="214"/>
-        <v>2230.6045223846645</v>
+        <v>3024.4469555335186</v>
       </c>
       <c r="FJ52" s="21">
         <f t="shared" si="214"/>
-        <v>2208.298477160818</v>
+        <v>2994.2024859781832</v>
       </c>
       <c r="FK52" s="21">
         <f t="shared" si="214"/>
-        <v>2186.2154923892099</v>
+        <v>2964.2604611184015</v>
       </c>
       <c r="FL52" s="21">
         <f t="shared" si="214"/>
-        <v>2164.353337465318</v>
+        <v>2934.6178565072173</v>
       </c>
       <c r="FM52" s="21">
         <f t="shared" si="214"/>
-        <v>2142.7098040906649</v>
+        <v>2905.2716779421453</v>
       </c>
       <c r="FN52" s="21">
         <f t="shared" si="214"/>
-        <v>2121.2827060497584</v>
+        <v>2876.2189611627236</v>
       </c>
       <c r="FO52" s="21">
         <f t="shared" si="214"/>
-        <v>2100.0698789892608</v>
+        <v>2847.4567715510966</v>
       </c>
       <c r="FP52" s="21">
         <f t="shared" si="214"/>
-        <v>2079.069180199368</v>
+        <v>2818.9822038355856</v>
       </c>
       <c r="FQ52" s="21">
         <f t="shared" si="214"/>
-        <v>2058.2784883973745</v>
+        <v>2790.7923817972296</v>
       </c>
       <c r="FR52" s="21">
         <f t="shared" si="214"/>
-        <v>2037.6957035134008</v>
+        <v>2762.8844579792571</v>
       </c>
       <c r="FS52" s="21">
         <f t="shared" si="214"/>
-        <v>2017.3187464782668</v>
+        <v>2735.2556133994644</v>
       </c>
       <c r="FT52" s="21">
         <f t="shared" si="214"/>
-        <v>1997.1455590134842</v>
+        <v>2707.9030572654697</v>
       </c>
       <c r="FU52" s="21">
         <f t="shared" si="214"/>
-        <v>1977.1741034233494</v>
+        <v>2680.8240266928151</v>
       </c>
       <c r="FV52" s="21">
         <f t="shared" si="214"/>
-        <v>1957.402362389116</v>
+        <v>2654.0157864258867</v>
       </c>
       <c r="FW52" s="21">
         <f t="shared" ref="FW52:IH52" si="215">FV52*(1+$BB$60)</f>
-        <v>1937.8283387652248</v>
+        <v>2627.4756285616277</v>
       </c>
       <c r="FX52" s="21">
         <f t="shared" si="215"/>
-        <v>1918.4500553775724</v>
+        <v>2601.2008722760115</v>
       </c>
       <c r="FY52" s="21">
         <f t="shared" si="215"/>
-        <v>1899.2655548237967</v>
+        <v>2575.1888635532514</v>
       </c>
       <c r="FZ52" s="21">
         <f t="shared" si="215"/>
-        <v>1880.2728992755588</v>
+        <v>2549.436974917719</v>
       </c>
       <c r="GA52" s="21">
         <f t="shared" si="215"/>
-        <v>1861.4701702828031</v>
+        <v>2523.9426051685418</v>
       </c>
       <c r="GB52" s="21">
         <f t="shared" si="215"/>
-        <v>1842.855468579975</v>
+        <v>2498.7031791168565</v>
       </c>
       <c r="GC52" s="21">
         <f t="shared" si="215"/>
-        <v>1824.4269138941752</v>
+        <v>2473.7161473256879</v>
       </c>
       <c r="GD52" s="21">
         <f t="shared" si="215"/>
-        <v>1806.1826447552335</v>
+        <v>2448.9789858524309</v>
       </c>
       <c r="GE52" s="21">
         <f t="shared" si="215"/>
-        <v>1788.120818307681</v>
+        <v>2424.4891959939064</v>
       </c>
       <c r="GF52" s="21">
         <f t="shared" si="215"/>
-        <v>1770.2396101246043</v>
+        <v>2400.2443040339672</v>
       </c>
       <c r="GG52" s="21">
         <f t="shared" si="215"/>
-        <v>1752.5372140233583</v>
+        <v>2376.2418609936276</v>
       </c>
       <c r="GH52" s="21">
         <f t="shared" si="215"/>
-        <v>1735.0118418831246</v>
+        <v>2352.4794423836911</v>
       </c>
       <c r="GI52" s="21">
         <f t="shared" si="215"/>
-        <v>1717.6617234642933</v>
+        <v>2328.9546479598544</v>
       </c>
       <c r="GJ52" s="21">
         <f t="shared" si="215"/>
-        <v>1700.4851062296505</v>
+        <v>2305.665101480256</v>
       </c>
       <c r="GK52" s="21">
         <f t="shared" si="215"/>
-        <v>1683.480255167354</v>
+        <v>2282.6084504654536</v>
       </c>
       <c r="GL52" s="21">
         <f t="shared" si="215"/>
-        <v>1666.6454526156804</v>
+        <v>2259.7823659607989</v>
       </c>
       <c r="GM52" s="21">
         <f t="shared" si="215"/>
-        <v>1649.9789980895237</v>
+        <v>2237.184542301191</v>
       </c>
       <c r="GN52" s="21">
         <f t="shared" si="215"/>
-        <v>1633.4792081086284</v>
+        <v>2214.8126968781789</v>
       </c>
       <c r="GO52" s="21">
         <f t="shared" si="215"/>
-        <v>1617.1444160275421</v>
+        <v>2192.664569909397</v>
       </c>
       <c r="GP52" s="21">
         <f t="shared" si="215"/>
-        <v>1600.9729718672666</v>
+        <v>2170.7379242103029</v>
       </c>
       <c r="GQ52" s="21">
         <f t="shared" si="215"/>
-        <v>1584.963242148594</v>
+        <v>2149.0305449682</v>
       </c>
       <c r="GR52" s="21">
         <f t="shared" si="215"/>
-        <v>1569.113609727108</v>
+        <v>2127.5402395185179</v>
       </c>
       <c r="GS52" s="21">
         <f t="shared" si="215"/>
-        <v>1553.422473629837</v>
+        <v>2106.2648371233327</v>
       </c>
       <c r="GT52" s="21">
         <f t="shared" si="215"/>
-        <v>1537.8882488935385</v>
+        <v>2085.2021887520991</v>
       </c>
       <c r="GU52" s="21">
         <f t="shared" si="215"/>
-        <v>1522.509366404603</v>
+        <v>2064.3501668645781</v>
       </c>
       <c r="GV52" s="21">
         <f t="shared" si="215"/>
-        <v>1507.2842727405571</v>
+        <v>2043.7066651959324</v>
       </c>
       <c r="GW52" s="21">
         <f t="shared" si="215"/>
-        <v>1492.2114300131516</v>
+        <v>2023.269598543973</v>
       </c>
       <c r="GX52" s="21">
         <f t="shared" si="215"/>
-        <v>1477.28931571302</v>
+        <v>2003.0369025585333</v>
       </c>
       <c r="GY52" s="21">
         <f t="shared" si="215"/>
-        <v>1462.5164225558897</v>
+        <v>1983.006533532948</v>
       </c>
       <c r="GZ52" s="21">
         <f t="shared" si="215"/>
-        <v>1447.8912583303309</v>
+        <v>1963.1764681976185</v>
       </c>
       <c r="HA52" s="21">
         <f t="shared" si="215"/>
-        <v>1433.4123457470275</v>
+        <v>1943.5447035156424</v>
       </c>
       <c r="HB52" s="21">
         <f t="shared" si="215"/>
-        <v>1419.0782222895573</v>
+        <v>1924.109256480486</v>
       </c>
       <c r="HC52" s="21">
         <f t="shared" si="215"/>
-        <v>1404.8874400666616</v>
+        <v>1904.8681639156812</v>
       </c>
       <c r="HD52" s="21">
         <f t="shared" si="215"/>
-        <v>1390.838565665995</v>
+        <v>1885.8194822765242</v>
       </c>
       <c r="HE52" s="21">
         <f t="shared" si="215"/>
-        <v>1376.9301800093351</v>
+        <v>1866.961287453759</v>
       </c>
       <c r="HF52" s="21">
         <f t="shared" si="215"/>
-        <v>1363.1608782092417</v>
+        <v>1848.2916745792215</v>
       </c>
       <c r="HG52" s="21">
         <f t="shared" si="215"/>
-        <v>1349.5292694271493</v>
+        <v>1829.8087578334294</v>
       </c>
       <c r="HH52" s="21">
         <f t="shared" si="215"/>
-        <v>1336.0339767328778</v>
+        <v>1811.510670255095</v>
       </c>
       <c r="HI52" s="21">
         <f t="shared" si="215"/>
-        <v>1322.6736369655491</v>
+        <v>1793.395563552544</v>
       </c>
       <c r="HJ52" s="21">
         <f t="shared" si="215"/>
-        <v>1309.4469005958936</v>
+        <v>1775.4616079170185</v>
       </c>
       <c r="HK52" s="21">
         <f t="shared" si="215"/>
-        <v>1296.3524315899347</v>
+        <v>1757.7069918378484</v>
       </c>
       <c r="HL52" s="21">
         <f t="shared" si="215"/>
-        <v>1283.3889072740353</v>
+        <v>1740.1299219194698</v>
       </c>
       <c r="HM52" s="21">
         <f t="shared" si="215"/>
-        <v>1270.5550182012948</v>
+        <v>1722.7286227002751</v>
       </c>
       <c r="HN52" s="21">
         <f t="shared" si="215"/>
-        <v>1257.8494680192819</v>
+        <v>1705.5013364732722</v>
       </c>
       <c r="HO52" s="21">
         <f t="shared" si="215"/>
-        <v>1245.2709733390891</v>
+        <v>1688.4463231085394</v>
       </c>
       <c r="HP52" s="21">
         <f t="shared" si="215"/>
-        <v>1232.8182636056981</v>
+        <v>1671.561859877454</v>
       </c>
       <c r="HQ52" s="21">
         <f t="shared" si="215"/>
-        <v>1220.4900809696412</v>
+        <v>1654.8462412786794</v>
       </c>
       <c r="HR52" s="21">
         <f t="shared" si="215"/>
-        <v>1208.2851801599447</v>
+        <v>1638.2977788658925</v>
       </c>
       <c r="HS52" s="21">
         <f t="shared" si="215"/>
-        <v>1196.2023283583453</v>
+        <v>1621.9148010772335</v>
       </c>
       <c r="HT52" s="21">
         <f t="shared" si="215"/>
-        <v>1184.2403050747619</v>
+        <v>1605.6956530664611</v>
       </c>
       <c r="HU52" s="21">
         <f t="shared" si="215"/>
-        <v>1172.3979020240142</v>
+        <v>1589.6386965357965</v>
       </c>
       <c r="HV52" s="21">
         <f t="shared" si="215"/>
-        <v>1160.673923003774</v>
+        <v>1573.7423095704385</v>
       </c>
       <c r="HW52" s="21">
         <f t="shared" si="215"/>
-        <v>1149.0671837737364</v>
+        <v>1558.0048864747341</v>
       </c>
       <c r="HX52" s="21">
         <f t="shared" si="215"/>
-        <v>1137.576511935999</v>
+        <v>1542.4248376099868</v>
       </c>
       <c r="HY52" s="21">
         <f t="shared" si="215"/>
-        <v>1126.2007468166389</v>
+        <v>1527.0005892338868</v>
       </c>
       <c r="HZ52" s="21">
         <f t="shared" si="215"/>
-        <v>1114.9387393484726</v>
+        <v>1511.7305833415478</v>
       </c>
       <c r="IA52" s="21">
         <f t="shared" si="215"/>
-        <v>1103.789351954988</v>
+        <v>1496.6132775081323</v>
       </c>
       <c r="IB52" s="21">
         <f t="shared" si="215"/>
-        <v>1092.7514584354381</v>
+        <v>1481.6471447330509</v>
       </c>
       <c r="IC52" s="21">
         <f t="shared" si="215"/>
-        <v>1081.8239438510836</v>
+        <v>1466.8306732857204</v>
       </c>
       <c r="ID52" s="21">
         <f t="shared" si="215"/>
-        <v>1071.0057044125729</v>
+        <v>1452.1623665528632</v>
       </c>
       <c r="IE52" s="21">
         <f t="shared" si="215"/>
-        <v>1060.2956473684471</v>
+        <v>1437.6407428873345</v>
       </c>
       <c r="IF52" s="21">
         <f t="shared" si="215"/>
-        <v>1049.6926908947626</v>
+        <v>1423.2643354584611</v>
       </c>
       <c r="IG52" s="21">
         <f t="shared" si="215"/>
-        <v>1039.1957639858149</v>
+        <v>1409.0316921038766</v>
       </c>
       <c r="IH52" s="21">
         <f t="shared" si="215"/>
-        <v>1028.8038063459567</v>
+        <v>1394.9413751828379</v>
       </c>
       <c r="II52" s="21">
         <f t="shared" ref="II52:KT52" si="216">IH52*(1+$BB$60)</f>
-        <v>1018.5157682824971</v>
+        <v>1380.9919614310095</v>
       </c>
       <c r="IJ52" s="21">
         <f t="shared" si="216"/>
-        <v>1008.3306105996721</v>
+        <v>1367.1820418166994</v>
       </c>
       <c r="IK52" s="21">
         <f t="shared" si="216"/>
-        <v>998.24730449367541</v>
+        <v>1353.5102213985324</v>
       </c>
       <c r="IL52" s="21">
         <f t="shared" si="216"/>
-        <v>988.26483144873862</v>
+        <v>1339.9751191845471</v>
       </c>
       <c r="IM52" s="21">
         <f t="shared" si="216"/>
-        <v>978.38218313425125</v>
+        <v>1326.5753679927016</v>
       </c>
       <c r="IN52" s="21">
         <f t="shared" si="216"/>
-        <v>968.59836130290876</v>
+        <v>1313.3096143127746</v>
       </c>
       <c r="IO52" s="21">
         <f t="shared" si="216"/>
-        <v>958.91237768987969</v>
+        <v>1300.1765181696469</v>
       </c>
       <c r="IP52" s="21">
         <f t="shared" si="216"/>
-        <v>949.32325391298093</v>
+        <v>1287.1747529879503</v>
       </c>
       <c r="IQ52" s="21">
         <f t="shared" si="216"/>
-        <v>939.83002137385108</v>
+        <v>1274.3030054580709</v>
       </c>
       <c r="IR52" s="21">
         <f t="shared" si="216"/>
-        <v>930.4317211601126</v>
+        <v>1261.5599754034902</v>
       </c>
       <c r="IS52" s="21">
         <f t="shared" si="216"/>
-        <v>921.12740394851141</v>
+        <v>1248.9443756494552</v>
       </c>
       <c r="IT52" s="21">
         <f t="shared" si="216"/>
-        <v>911.91612990902627</v>
+        <v>1236.4549318929605</v>
       </c>
       <c r="IU52" s="21">
         <f t="shared" si="216"/>
-        <v>902.79696860993602</v>
+        <v>1224.0903825740309</v>
       </c>
       <c r="IV52" s="21">
         <f t="shared" si="216"/>
-        <v>893.76899892383665</v>
+        <v>1211.8494787482905</v>
       </c>
       <c r="IW52" s="21">
         <f t="shared" si="216"/>
-        <v>884.83130893459827</v>
+        <v>1199.7309839608076</v>
       </c>
       <c r="IX52" s="21">
         <f t="shared" si="216"/>
-        <v>875.98299584525228</v>
+        <v>1187.7336741211996</v>
       </c>
       <c r="IY52" s="21">
         <f t="shared" si="216"/>
-        <v>867.22316588679973</v>
+        <v>1175.8563373799875</v>
       </c>
       <c r="IZ52" s="21">
         <f t="shared" si="216"/>
-        <v>858.55093422793175</v>
+        <v>1164.0977740061876</v>
       </c>
       <c r="JA52" s="21">
         <f t="shared" si="216"/>
-        <v>849.9654248856524</v>
+        <v>1152.4567962661256</v>
       </c>
       <c r="JB52" s="21">
         <f t="shared" si="216"/>
-        <v>841.46577063679581</v>
+        <v>1140.9322283034644</v>
       </c>
       <c r="JC52" s="21">
         <f t="shared" si="216"/>
-        <v>833.05111293042785</v>
+        <v>1129.5229060204297</v>
       </c>
       <c r="JD52" s="21">
         <f t="shared" si="216"/>
-        <v>824.72060180112351</v>
+        <v>1118.2276769602254</v>
       </c>
       <c r="JE52" s="21">
         <f t="shared" si="216"/>
-        <v>816.47339578311221</v>
+        <v>1107.045400190623</v>
       </c>
       <c r="JF52" s="21">
         <f t="shared" si="216"/>
-        <v>808.30866182528109</v>
+        <v>1095.9749461887168</v>
       </c>
       <c r="JG52" s="21">
         <f t="shared" si="216"/>
-        <v>800.22557520702833</v>
+        <v>1085.0151967268296</v>
       </c>
       <c r="JH52" s="21">
         <f t="shared" si="216"/>
-        <v>792.22331945495807</v>
+        <v>1074.1650447595612</v>
       </c>
       <c r="JI52" s="21">
         <f t="shared" si="216"/>
-        <v>784.30108626040851</v>
+        <v>1063.4233943119655</v>
       </c>
       <c r="JJ52" s="21">
         <f t="shared" si="216"/>
-        <v>776.45807539780446</v>
+        <v>1052.7891603688458</v>
       </c>
       <c r="JK52" s="21">
         <f t="shared" si="216"/>
-        <v>768.6934946438264</v>
+        <v>1042.2612687651574</v>
       </c>
       <c r="JL52" s="21">
         <f t="shared" si="216"/>
-        <v>761.00655969738818</v>
+        <v>1031.8386560775059</v>
       </c>
       <c r="JM52" s="21">
         <f t="shared" si="216"/>
-        <v>753.39649410041432</v>
+        <v>1021.5202695167309</v>
       </c>
       <c r="JN52" s="21">
         <f t="shared" si="216"/>
-        <v>745.8625291594102</v>
+        <v>1011.3050668215635</v>
       </c>
       <c r="JO52" s="21">
         <f t="shared" si="216"/>
-        <v>738.4039038678161</v>
+        <v>1001.1920161533478</v>
       </c>
       <c r="JP52" s="21">
         <f t="shared" si="216"/>
-        <v>731.01986482913799</v>
+        <v>991.18009599181437</v>
       </c>
       <c r="JQ52" s="21">
         <f t="shared" si="216"/>
-        <v>723.70966618084663</v>
+        <v>981.26829503189617</v>
       </c>
       <c r="JR52" s="21">
         <f t="shared" si="216"/>
-        <v>716.47256951903819</v>
+        <v>971.45561208157721</v>
       </c>
       <c r="JS52" s="21">
         <f t="shared" si="216"/>
-        <v>709.30784382384775</v>
+        <v>961.7410559607614</v>
       </c>
       <c r="JT52" s="21">
         <f t="shared" si="216"/>
-        <v>702.21476538560921</v>
+        <v>952.12364540115379</v>
       </c>
       <c r="JU52" s="21">
         <f t="shared" si="216"/>
-        <v>695.1926177317531</v>
+        <v>942.60240894714229</v>
       </c>
       <c r="JV52" s="21">
         <f t="shared" si="216"/>
-        <v>688.24069155443556</v>
+        <v>933.17638485767088</v>
       </c>
       <c r="JW52" s="21">
         <f t="shared" si="216"/>
-        <v>681.35828463889118</v>
+        <v>923.84462100909411</v>
       </c>
       <c r="JX52" s="21">
         <f t="shared" si="216"/>
-        <v>674.54470179250222</v>
+        <v>914.60617479900316</v>
       </c>
       <c r="JY52" s="21">
         <f t="shared" si="216"/>
-        <v>667.79925477457721</v>
+        <v>905.46011305101308</v>
       </c>
       <c r="JZ52" s="21">
         <f t="shared" si="216"/>
-        <v>661.12126222683139</v>
+        <v>896.40551192050293</v>
       </c>
       <c r="KA52" s="21">
         <f t="shared" si="216"/>
-        <v>654.51004960456305</v>
+        <v>887.44145680129793</v>
       </c>
       <c r="KB52" s="21">
         <f t="shared" si="216"/>
-        <v>647.96494910851743</v>
+        <v>878.56704223328495</v>
       </c>
       <c r="KC52" s="21">
         <f t="shared" si="216"/>
-        <v>641.48529961743225</v>
+        <v>869.78137181095212</v>
       </c>
       <c r="KD52" s="21">
         <f t="shared" si="216"/>
-        <v>635.07044662125793</v>
+        <v>861.08355809284262</v>
       </c>
       <c r="KE52" s="21">
         <f t="shared" si="216"/>
-        <v>628.71974215504531</v>
+        <v>852.47272251191418</v>
       </c>
       <c r="KF52" s="21">
         <f t="shared" si="216"/>
-        <v>622.43254473349486</v>
+        <v>843.94799528679505</v>
       </c>
       <c r="KG52" s="21">
         <f t="shared" si="216"/>
-        <v>616.20821928615987</v>
+        <v>835.50851533392711</v>
       </c>
       <c r="KH52" s="21">
         <f t="shared" si="216"/>
-        <v>610.04613709329828</v>
+        <v>827.15343018058786</v>
       </c>
       <c r="KI52" s="21">
         <f t="shared" si="216"/>
-        <v>603.94567572236531</v>
+        <v>818.88189587878196</v>
       </c>
       <c r="KJ52" s="21">
         <f t="shared" si="216"/>
-        <v>597.90621896514165</v>
+        <v>810.69307691999416</v>
       </c>
       <c r="KK52" s="21">
         <f t="shared" si="216"/>
-        <v>591.92715677549018</v>
+        <v>802.58614615079421</v>
       </c>
       <c r="KL52" s="21">
         <f t="shared" si="216"/>
-        <v>586.00788520773528</v>
+        <v>794.56028468928628</v>
       </c>
       <c r="KM52" s="21">
         <f t="shared" si="216"/>
-        <v>580.14780635565796</v>
+        <v>786.61468184239345</v>
       </c>
       <c r="KN52" s="21">
         <f t="shared" si="216"/>
-        <v>574.34632829210136</v>
+        <v>778.74853502396957</v>
       </c>
       <c r="KO52" s="21">
         <f t="shared" si="216"/>
-        <v>568.60286500918039</v>
+        <v>770.96104967372992</v>
       </c>
       <c r="KP52" s="21">
         <f t="shared" si="216"/>
-        <v>562.91683635908862</v>
+        <v>763.25143917699256</v>
       </c>
       <c r="KQ52" s="21">
         <f t="shared" si="216"/>
-        <v>557.28766799549771</v>
+        <v>755.61892478522259</v>
       </c>
       <c r="KR52" s="21">
         <f t="shared" si="216"/>
-        <v>551.7147913155427</v>
+        <v>748.06273553737037</v>
       </c>
       <c r="KS52" s="21">
         <f t="shared" si="216"/>
-        <v>546.19764340238726</v>
+        <v>740.58210818199666</v>
       </c>
       <c r="KT52" s="21">
         <f t="shared" si="216"/>
-        <v>540.73566696836338</v>
+        <v>733.17628710017664</v>
       </c>
       <c r="KU52" s="21">
         <f t="shared" ref="KU52:NF52" si="217">KT52*(1+$BB$60)</f>
-        <v>535.32831029867975</v>
+        <v>725.84452422917491</v>
       </c>
       <c r="KV52" s="21">
         <f t="shared" si="217"/>
-        <v>529.97502719569297</v>
+        <v>718.58607898688319</v>
       </c>
       <c r="KW52" s="21">
         <f t="shared" si="217"/>
-        <v>524.67527692373608</v>
+        <v>711.4002181970144</v>
       </c>
       <c r="KX52" s="21">
         <f t="shared" si="217"/>
-        <v>519.42852415449875</v>
+        <v>704.28621601504426</v>
       </c>
       <c r="KY52" s="21">
         <f t="shared" si="217"/>
-        <v>514.23423891295374</v>
+        <v>697.24335385489383</v>
       </c>
       <c r="KZ52" s="21">
         <f t="shared" si="217"/>
-        <v>509.09189652382418</v>
+        <v>690.27092031634493</v>
       </c>
       <c r="LA52" s="21">
         <f t="shared" si="217"/>
-        <v>504.00097755858593</v>
+        <v>683.36821111318147</v>
       </c>
       <c r="LB52" s="21">
         <f t="shared" si="217"/>
-        <v>498.96096778300006</v>
+        <v>676.53452900204968</v>
       </c>
       <c r="LC52" s="21">
         <f t="shared" si="217"/>
-        <v>493.97135810517005</v>
+        <v>669.76918371202919</v>
       </c>
       <c r="LD52" s="21">
         <f t="shared" si="217"/>
-        <v>489.03164452411835</v>
+        <v>663.07149187490893</v>
       </c>
       <c r="LE52" s="21">
         <f t="shared" si="217"/>
-        <v>484.14132807887717</v>
+        <v>656.44077695615988</v>
       </c>
       <c r="LF52" s="21">
         <f t="shared" si="217"/>
-        <v>479.29991479808837</v>
+        <v>649.87636918659825</v>
       </c>
       <c r="LG52" s="21">
         <f t="shared" si="217"/>
-        <v>474.50691565010749</v>
+        <v>643.37760549473228</v>
       </c>
       <c r="LH52" s="21">
         <f t="shared" si="217"/>
-        <v>469.76184649360641</v>
+        <v>636.94382943978496</v>
       </c>
       <c r="LI52" s="21">
         <f t="shared" si="217"/>
-        <v>465.06422802867036</v>
+        <v>630.57439114538715</v>
       </c>
       <c r="LJ52" s="21">
         <f t="shared" si="217"/>
-        <v>460.41358574838364</v>
+        <v>624.26864723393328</v>
       </c>
       <c r="LK52" s="21">
         <f t="shared" si="217"/>
-        <v>455.80944989089977</v>
+        <v>618.02596076159398</v>
       </c>
       <c r="LL52" s="21">
         <f t="shared" si="217"/>
-        <v>451.25135539199078</v>
+        <v>611.84570115397798</v>
       </c>
       <c r="LM52" s="21">
         <f t="shared" si="217"/>
-        <v>446.73884183807087</v>
+        <v>605.72724414243817</v>
       </c>
       <c r="LN52" s="21">
         <f t="shared" si="217"/>
-        <v>442.27145341969015</v>
+        <v>599.66997170101376</v>
       </c>
       <c r="LO52" s="21">
         <f t="shared" si="217"/>
-        <v>437.84873888549322</v>
+        <v>593.67327198400358</v>
       </c>
       <c r="LP52" s="21">
         <f t="shared" si="217"/>
-        <v>433.4702514966383</v>
+        <v>587.73653926416353</v>
       </c>
       <c r="LQ52" s="21">
         <f t="shared" si="217"/>
-        <v>429.13554898167189</v>
+        <v>581.85917387152188</v>
       </c>
       <c r="LR52" s="21">
         <f t="shared" si="217"/>
-        <v>424.84419349185515</v>
+        <v>576.04058213280666</v>
       </c>
       <c r="LS52" s="21">
         <f t="shared" si="217"/>
-        <v>420.59575155693659</v>
+        <v>570.28017631147861</v>
       </c>
       <c r="LT52" s="21">
         <f t="shared" si="217"/>
-        <v>416.38979404136722</v>
+        <v>564.57737454836388</v>
       </c>
       <c r="LU52" s="21">
         <f t="shared" si="217"/>
-        <v>412.22589610095355</v>
+        <v>558.93160080288021</v>
       </c>
       <c r="LV52" s="21">
         <f t="shared" si="217"/>
-        <v>408.103637139944</v>
+        <v>553.34228479485137</v>
       </c>
       <c r="LW52" s="21">
         <f t="shared" si="217"/>
-        <v>404.02260076854458</v>
+        <v>547.80886194690288</v>
       </c>
       <c r="LX52" s="21">
         <f t="shared" si="217"/>
-        <v>399.9823747608591</v>
+        <v>542.3307733274338</v>
       </c>
       <c r="LY52" s="21">
         <f t="shared" si="217"/>
-        <v>395.98255101325049</v>
+        <v>536.90746559415948</v>
       </c>
       <c r="LZ52" s="21">
         <f t="shared" si="217"/>
-        <v>392.02272550311795</v>
+        <v>531.53839093821784</v>
       </c>
       <c r="MA52" s="21">
         <f t="shared" si="217"/>
-        <v>388.10249824808676</v>
+        <v>526.2230070288357</v>
       </c>
       <c r="MB52" s="21">
         <f t="shared" si="217"/>
-        <v>384.22147326560588</v>
+        <v>520.96077695854729</v>
       </c>
       <c r="MC52" s="21">
         <f t="shared" si="217"/>
-        <v>380.37925853294979</v>
+        <v>515.75116918896185</v>
       </c>
       <c r="MD52" s="21">
         <f t="shared" si="217"/>
-        <v>376.57546594762027</v>
+        <v>510.59365749707223</v>
       </c>
       <c r="ME52" s="21">
         <f t="shared" si="217"/>
-        <v>372.80971128814406</v>
+        <v>505.48772092210152</v>
       </c>
       <c r="MF52" s="21">
         <f t="shared" si="217"/>
-        <v>369.08161417526259</v>
+        <v>500.43284371288047</v>
       </c>
       <c r="MG52" s="21">
         <f t="shared" si="217"/>
-        <v>365.39079803350995</v>
+        <v>495.42851527575164</v>
       </c>
       <c r="MH52" s="21">
         <f t="shared" si="217"/>
-        <v>361.73689005317487</v>
+        <v>490.47423012299413</v>
       </c>
       <c r="MI52" s="21">
         <f t="shared" si="217"/>
-        <v>358.11952115264313</v>
+        <v>485.5694878217642</v>
       </c>
       <c r="MJ52" s="21">
         <f t="shared" si="217"/>
-        <v>354.53832594111668</v>
+        <v>480.71379294354654</v>
       </c>
       <c r="MK52" s="21">
         <f t="shared" si="217"/>
-        <v>350.99294268170553</v>
+        <v>475.9066550141111</v>
       </c>
       <c r="ML52" s="21">
         <f t="shared" si="217"/>
-        <v>347.48301325488848</v>
+        <v>471.14758846396995</v>
       </c>
       <c r="MM52" s="21">
         <f t="shared" si="217"/>
-        <v>344.00818312233957</v>
+        <v>466.43611257933026</v>
       </c>
       <c r="MN52" s="21">
         <f t="shared" si="217"/>
-        <v>340.56810129111619</v>
+        <v>461.77175145353692</v>
       </c>
       <c r="MO52" s="21">
         <f t="shared" si="217"/>
-        <v>337.16242027820505</v>
+        <v>457.15403393900152</v>
       </c>
       <c r="MP52" s="21">
         <f t="shared" si="217"/>
-        <v>333.79079607542297</v>
+        <v>452.5824935996115</v>
       </c>
       <c r="MQ52" s="21">
         <f t="shared" si="217"/>
-        <v>330.45288811466872</v>
+        <v>448.05666866361537</v>
       </c>
       <c r="MR52" s="21">
         <f t="shared" si="217"/>
-        <v>327.14835923352206</v>
+        <v>443.5761019769792</v>
       </c>
       <c r="MS52" s="21">
         <f t="shared" si="217"/>
-        <v>323.87687564118681</v>
+        <v>439.14034095720939</v>
       </c>
       <c r="MT52" s="21">
         <f t="shared" si="217"/>
-        <v>320.63810688477497</v>
+        <v>434.7489375476373</v>
       </c>
       <c r="MU52" s="21">
         <f t="shared" si="217"/>
-        <v>317.43172581592722</v>
+        <v>430.40144817216094</v>
       </c>
       <c r="MV52" s="21">
         <f t="shared" si="217"/>
-        <v>314.25740855776797</v>
+        <v>426.09743369043935</v>
       </c>
       <c r="MW52" s="21">
         <f t="shared" si="217"/>
-        <v>311.1148344721903</v>
+        <v>421.83645935353496</v>
       </c>
       <c r="MX52" s="21">
         <f t="shared" si="217"/>
-        <v>308.00368612746837</v>
+        <v>417.61809475999962</v>
       </c>
       <c r="MY52" s="21">
         <f t="shared" si="217"/>
-        <v>304.92364926619371</v>
+        <v>413.4419138123996</v>
       </c>
       <c r="MZ52" s="21">
         <f t="shared" si="217"/>
-        <v>301.87441277353179</v>
+        <v>409.30749467427563</v>
       </c>
       <c r="NA52" s="21">
         <f t="shared" si="217"/>
-        <v>298.85566864579647</v>
+        <v>405.21441972753286</v>
       </c>
       <c r="NB52" s="21">
         <f t="shared" si="217"/>
-        <v>295.8671119593385</v>
+        <v>401.16227553025755</v>
       </c>
       <c r="NC52" s="21">
         <f t="shared" si="217"/>
-        <v>292.90844083974514</v>
+        <v>397.15065277495495</v>
       </c>
       <c r="ND52" s="21">
         <f t="shared" si="217"/>
-        <v>289.9793564313477</v>
+        <v>393.17914624720538</v>
       </c>
       <c r="NE52" s="21">
         <f t="shared" si="217"/>
-        <v>287.07956286703421</v>
+        <v>389.24735478473332</v>
       </c>
       <c r="NF52" s="21">
         <f t="shared" si="217"/>
-        <v>284.20876723836386</v>
+        <v>385.354881236886</v>
       </c>
       <c r="NG52" s="21">
         <f t="shared" ref="NG52:OD52" si="218">NF52*(1+$BB$60)</f>
-        <v>281.36667956598023</v>
+        <v>381.50133242451716</v>
       </c>
       <c r="NH52" s="21">
         <f t="shared" si="218"/>
-        <v>278.55301277032044</v>
+        <v>377.68631910027199</v>
       </c>
       <c r="NI52" s="21">
         <f t="shared" si="218"/>
-        <v>275.76748264261721</v>
+        <v>373.90945590926924</v>
       </c>
       <c r="NJ52" s="21">
         <f t="shared" si="218"/>
-        <v>273.00980781619103</v>
+        <v>370.17036135017656</v>
       </c>
       <c r="NK52" s="21">
         <f t="shared" si="218"/>
-        <v>270.27970973802911</v>
+        <v>366.4686577366748</v>
       </c>
       <c r="NL52" s="21">
         <f t="shared" si="218"/>
-        <v>267.5769126406488</v>
+        <v>362.80397115930805</v>
       </c>
       <c r="NM52" s="21">
         <f t="shared" si="218"/>
-        <v>264.90114351424234</v>
+        <v>359.17593144771496</v>
       </c>
       <c r="NN52" s="21">
         <f t="shared" si="218"/>
-        <v>262.25213207909991</v>
+        <v>355.58417213323781</v>
       </c>
       <c r="NO52" s="21">
         <f t="shared" si="218"/>
-        <v>259.6296107583089</v>
+        <v>352.02833041190542</v>
       </c>
       <c r="NP52" s="21">
         <f t="shared" si="218"/>
-        <v>257.0333146507258</v>
+        <v>348.50804710778635</v>
       </c>
       <c r="NQ52" s="21">
         <f t="shared" si="218"/>
-        <v>254.46298150421853</v>
+        <v>345.02296663670847</v>
       </c>
       <c r="NR52" s="21">
         <f t="shared" si="218"/>
-        <v>251.91835168917635</v>
+        <v>341.5727369703414</v>
       </c>
       <c r="NS52" s="21">
         <f t="shared" si="218"/>
-        <v>249.39916817228459</v>
+        <v>338.15700960063799</v>
       </c>
       <c r="NT52" s="21">
         <f t="shared" si="218"/>
-        <v>246.90517649056173</v>
+        <v>334.77543950463161</v>
       </c>
       <c r="NU52" s="21">
         <f t="shared" si="218"/>
-        <v>244.4361247256561</v>
+        <v>331.4276851095853</v>
       </c>
       <c r="NV52" s="21">
         <f t="shared" si="218"/>
-        <v>241.99176347839955</v>
+        <v>328.11340825848941</v>
       </c>
       <c r="NW52" s="21">
         <f t="shared" si="218"/>
-        <v>239.57184584361556</v>
+        <v>324.8322741759045</v>
       </c>
       <c r="NX52" s="21">
         <f t="shared" si="218"/>
-        <v>237.1761273851794</v>
+        <v>321.58395143414543</v>
       </c>
       <c r="NY52" s="21">
         <f t="shared" si="218"/>
-        <v>234.8043661113276</v>
+        <v>318.36811191980399</v>
       </c>
       <c r="NZ52" s="21">
         <f t="shared" si="218"/>
-        <v>232.45632245021432</v>
+        <v>315.18443080060592</v>
       </c>
       <c r="OA52" s="21">
         <f t="shared" si="218"/>
-        <v>230.13175922571216</v>
+        <v>312.03258649259988</v>
       </c>
       <c r="OB52" s="21">
         <f t="shared" si="218"/>
-        <v>227.83044163345502</v>
+        <v>308.9122606276739</v>
       </c>
       <c r="OC52" s="21">
         <f t="shared" si="218"/>
-        <v>225.55213721712047</v>
+        <v>305.82313802139714</v>
       </c>
       <c r="OD52" s="21">
         <f t="shared" si="218"/>
-        <v>223.29661584494926</v>
+        <v>302.76490664118319</v>
       </c>
     </row>
     <row r="53" spans="1:394" x14ac:dyDescent="0.25">
@@ -9898,7 +9903,7 @@
         <v>1525.174</v>
       </c>
       <c r="AV53" s="2">
-        <f t="shared" ref="AU53:AV53" si="219">AU53*0.99</f>
+        <f t="shared" ref="AV53" si="219">AU53*0.99</f>
         <v>1509.9222600000001</v>
       </c>
       <c r="AW53" s="2">
@@ -10071,7 +10076,7 @@
         <v>3.2577266593844376</v>
       </c>
       <c r="AU54" s="13">
-        <f t="shared" ref="AT54:AX54" si="225">AU52/AU53</f>
+        <f t="shared" ref="AU54:AX54" si="225">AU52/AU53</f>
         <v>3.5150661251346209</v>
       </c>
       <c r="AV54" s="13">
@@ -10080,16 +10085,16 @@
       </c>
       <c r="AW54" s="13">
         <f t="shared" si="225"/>
-        <v>4.5143592627441311</v>
+        <v>5.2989780240658817</v>
       </c>
       <c r="AX54" s="13">
         <f t="shared" si="225"/>
-        <v>4.7879567938195366</v>
+        <v>6.491926831033437</v>
       </c>
     </row>
     <row r="56" spans="1:394" x14ac:dyDescent="0.25">
       <c r="B56" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2">
         <f>C52+C51-C49+C48</f>
@@ -10240,144 +10245,144 @@
         <v>7017</v>
       </c>
       <c r="AS56" s="2">
-        <f>SUM(W56:Z56)</f>
+        <f t="shared" ref="AS56:AX56" si="228">SUM(W56:Z56)</f>
         <v>7275</v>
       </c>
       <c r="AT56" s="2">
-        <f>SUM(X56:AA56)</f>
+        <f t="shared" si="228"/>
         <v>6048</v>
       </c>
       <c r="AU56" s="2">
-        <f>SUM(Y56:AB56)</f>
+        <f t="shared" si="228"/>
         <v>5339</v>
       </c>
       <c r="AV56" s="2">
-        <f>SUM(Z56:AC56)</f>
+        <f t="shared" si="228"/>
         <v>4460</v>
       </c>
       <c r="AW56" s="2">
-        <f>SUM(AA56:AD56)</f>
+        <f t="shared" si="228"/>
         <v>3653</v>
       </c>
       <c r="AX56" s="2">
-        <f>SUM(AB56:AE56)</f>
+        <f t="shared" si="228"/>
         <v>3886</v>
       </c>
     </row>
     <row r="57" spans="1:394" x14ac:dyDescent="0.25">
       <c r="B57" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G57" s="4">
         <f>G56/C56-1</f>
         <v>-0.18074074074074076</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" ref="H57:AA57" si="228">H56/D56-1</f>
+        <f t="shared" ref="H57:AA57" si="229">H56/D56-1</f>
         <v>-0.20662598081952921</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>-0.68321678321678325</v>
       </c>
       <c r="J57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>3.6243822075782584E-2</v>
       </c>
       <c r="K57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0.20614828209764924</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0.16373626373626382</v>
       </c>
       <c r="M57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>1.9977924944812364</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>1.9872813990461147E-2</v>
       </c>
       <c r="O57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0.20614692653673172</v>
       </c>
       <c r="P57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0.22946175637393762</v>
       </c>
       <c r="Q57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>-0.12371134020618557</v>
       </c>
       <c r="R57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>-1.5003897116134062</v>
       </c>
       <c r="S57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0.11497824735860784</v>
       </c>
       <c r="T57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0.21351766513056836</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0.44705882352941173</v>
       </c>
       <c r="V57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>-3.9922118380062304</v>
       </c>
       <c r="W57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0.22742474916387967</v>
       </c>
       <c r="X57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>4.9367088607594978E-2</v>
       </c>
       <c r="Y57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>5.5168408826945514E-2</v>
       </c>
       <c r="Z57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>-0.16814159292035402</v>
       </c>
       <c r="AA57" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>-0.55722070844686655</v>
       </c>
       <c r="AB57" s="4">
-        <f t="shared" ref="AB57" si="229">AB56/X56-1</f>
+        <f t="shared" ref="AB57" si="230">AB56/X56-1</f>
         <v>-0.42762364294330524</v>
       </c>
       <c r="AC57" s="4">
-        <f t="shared" ref="AC57" si="230">AC56/Y56-1</f>
+        <f t="shared" ref="AC57" si="231">AC56/Y56-1</f>
         <v>-0.48376444689047882</v>
       </c>
       <c r="AD57" s="4">
-        <f t="shared" ref="AD57" si="231">AD56/Z56-1</f>
+        <f t="shared" ref="AD57" si="232">AD56/Z56-1</f>
         <v>-0.50500625782227782</v>
       </c>
       <c r="AE57" s="4">
-        <f t="shared" ref="AE57" si="232">AE56/AA56-1</f>
+        <f t="shared" ref="AE57" si="233">AE56/AA56-1</f>
         <v>0.23897435897435892</v>
       </c>
       <c r="AF57" s="4">
-        <f t="shared" ref="AF57" si="233">AF56/AB56-1</f>
+        <f t="shared" ref="AF57" si="234">AF56/AB56-1</f>
         <v>0.1981032665964173</v>
       </c>
       <c r="AG57" s="4">
-        <f t="shared" ref="AG57" si="234">AG56/AC56-1</f>
+        <f t="shared" ref="AG57" si="235">AG56/AC56-1</f>
         <v>8.2489157275942082E-2</v>
       </c>
       <c r="AH57" s="4">
-        <f t="shared" ref="AH57" si="235">AH56/AD56-1</f>
+        <f t="shared" ref="AH57" si="236">AH56/AD56-1</f>
         <v>0.59919101788533369</v>
       </c>
       <c r="AO57" s="4">
@@ -10385,39 +10390,39 @@
         <v>-0.27504376580431822</v>
       </c>
       <c r="AP57" s="4">
-        <f t="shared" ref="AP57:AS57" si="236">AP56/AO56-1</f>
+        <f t="shared" ref="AP57:AS57" si="237">AP56/AO56-1</f>
         <v>0.35068419640461501</v>
       </c>
       <c r="AQ57" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-0.31287246722288442</v>
       </c>
       <c r="AR57" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>1.028620988725065</v>
       </c>
       <c r="AS57" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>3.6767849508337003E-2</v>
       </c>
       <c r="AT57" s="4">
-        <f t="shared" ref="AT57" si="237">AT56/AS56-1</f>
+        <f t="shared" ref="AT57" si="238">AT56/AS56-1</f>
         <v>-0.16865979381443297</v>
       </c>
       <c r="AU57" s="4">
-        <f t="shared" ref="AU57" si="238">AU56/AT56-1</f>
+        <f t="shared" ref="AU57" si="239">AU56/AT56-1</f>
         <v>-0.11722883597883593</v>
       </c>
       <c r="AV57" s="4">
-        <f t="shared" ref="AV57" si="239">AV56/AU56-1</f>
+        <f t="shared" ref="AV57" si="240">AV56/AU56-1</f>
         <v>-0.16463757257913469</v>
       </c>
       <c r="AW57" s="4">
-        <f t="shared" ref="AW57" si="240">AW56/AV56-1</f>
+        <f t="shared" ref="AW57" si="241">AW56/AV56-1</f>
         <v>-0.1809417040358744</v>
       </c>
       <c r="AX57" s="4">
-        <f t="shared" ref="AX57" si="241">AX56/AW56-1</f>
+        <f t="shared" ref="AX57" si="242">AX56/AW56-1</f>
         <v>6.3783191897070823E-2</v>
       </c>
     </row>
@@ -10426,79 +10431,79 @@
         <v>32</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" ref="G59:Y59" si="242">G41/C41-1</f>
+        <f t="shared" ref="G59:Y59" si="243">G41/C41-1</f>
         <v>9.9326785123055039E-4</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>4.5721271393643015E-2</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>6.5464895635673592E-2</v>
       </c>
       <c r="J59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>0.12815489224386312</v>
       </c>
       <c r="K59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>9.6802646085997868E-2</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>9.586158522328736E-2</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>6.9790739091718512E-2</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>4.0351414853406986E-2</v>
       </c>
       <c r="O59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>7.1572175311620523E-2</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>0.10155749946660975</v>
       </c>
       <c r="Q59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>5.1295390698158361E-2</v>
       </c>
       <c r="R59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>-0.38010604870384912</v>
       </c>
       <c r="S59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>-6.1913696060037493E-3</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>8.8804958357544095E-2</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>2.5039588281868586E-2</v>
       </c>
       <c r="V59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>0.95533027086963407</v>
       </c>
       <c r="W59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>0.15612610911836899</v>
       </c>
       <c r="X59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>1.0139642444187524E-2</v>
       </c>
       <c r="Y59" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>4.9628270734768831E-2</v>
       </c>
       <c r="Z59" s="4">
@@ -10510,31 +10515,31 @@
         <v>3.5842586544742039E-2</v>
       </c>
       <c r="AB59" s="4">
-        <f t="shared" ref="AB59:AD60" si="243">AB41/X41-1</f>
+        <f t="shared" ref="AB59:AD60" si="244">AB41/X41-1</f>
         <v>0.17240468433565193</v>
       </c>
       <c r="AC59" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>0.13972955569864776</v>
       </c>
       <c r="AD59" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>4.8307994114762165E-2</v>
       </c>
       <c r="AE59" s="4">
-        <f t="shared" ref="AE59:AE60" si="244">AE41/AA41-1</f>
+        <f t="shared" ref="AE59:AE60" si="245">AE41/AA41-1</f>
         <v>1.986285173799951E-2</v>
       </c>
       <c r="AF59" s="4">
-        <f t="shared" ref="AF59:AF60" si="245">AF41/AB41-1</f>
+        <f t="shared" ref="AF59:AF60" si="246">AF41/AB41-1</f>
         <v>5.482538490424238E-3</v>
       </c>
       <c r="AG59" s="4">
-        <f t="shared" ref="AG59:AG60" si="246">AG41/AC41-1</f>
+        <f t="shared" ref="AG59:AG60" si="247">AG41/AC41-1</f>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="AH59" s="4">
-        <f t="shared" ref="AH59:AH60" si="247">AH41/AD41-1</f>
+        <f t="shared" ref="AH59:AH60" si="248">AH41/AD41-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AO59" s="4">
@@ -10542,40 +10547,40 @@
         <v>5.95924308588065E-2</v>
       </c>
       <c r="AP59" s="4">
-        <f t="shared" ref="AP59:AS59" si="248">AP41/AO41-1</f>
+        <f t="shared" ref="AP59:AS59" si="249">AP41/AO41-1</f>
         <v>7.4731433909388079E-2</v>
       </c>
       <c r="AQ59" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>-4.3817266150267153E-2</v>
       </c>
       <c r="AR59" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>0.19076009945726269</v>
       </c>
       <c r="AS59" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>4.8767344739323759E-2</v>
       </c>
       <c r="AT59" s="4">
-        <f t="shared" ref="AT59:AT60" si="249">AT41/AS41-1</f>
+        <f t="shared" ref="AT59:AT60" si="250">AT41/AS41-1</f>
         <v>9.6488974523656568E-2</v>
       </c>
       <c r="AU59" s="4">
-        <f t="shared" ref="AU59:AU60" si="250">AU41/AT41-1</f>
+        <f t="shared" ref="AU59:AU60" si="251">AU41/AT41-1</f>
         <v>6.5154148036785653E-3</v>
       </c>
       <c r="AV59" s="4">
-        <f t="shared" ref="AV59:AV60" si="251">AV41/AU41-1</f>
+        <f t="shared" ref="AV59:AV60" si="252">AV41/AU41-1</f>
         <v>7.0683366084262289E-2</v>
       </c>
       <c r="AW59" s="4">
-        <f t="shared" ref="AW59:AW60" si="252">AW41/AV41-1</f>
-        <v>5.0000000000000488E-2</v>
+        <f t="shared" ref="AW59:AW60" si="253">AW41/AV41-1</f>
+        <v>7.124970221205329E-2</v>
       </c>
       <c r="AX59" s="4">
-        <f t="shared" ref="AX59:AX60" si="253">AX41/AW41-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="AX59:AX60" si="254">AX41/AW41-1</f>
+        <v>7.182000366953778E-2</v>
       </c>
     </row>
     <row r="60" spans="1:394" x14ac:dyDescent="0.25">
@@ -10583,155 +10588,155 @@
         <v>33</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" ref="G60:R60" si="254">G42/C42-1</f>
+        <f t="shared" ref="G60:R60" si="255">G42/C42-1</f>
         <v>3.4426893479141407E-2</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>6.8361086765994727E-2</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.15570269115762492</v>
       </c>
       <c r="J60" s="4">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.11475072105480022</v>
       </c>
       <c r="K60" s="4">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>8.6726703210650014E-2</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>8.059885151763746E-2</v>
       </c>
       <c r="M60" s="4">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-2.5688412493069634E-2</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>2.5873221216041298E-2</v>
       </c>
       <c r="O60" s="4">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>4.2875157629256089E-2</v>
       </c>
       <c r="P60" s="4">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>9.7361928259631858E-2</v>
       </c>
       <c r="Q60" s="4">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>6.8095599393019679E-2</v>
       </c>
       <c r="R60" s="4">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-0.28661502431994235</v>
       </c>
       <c r="S60" s="4">
-        <f t="shared" ref="S60" si="255">S42/O42-1</f>
+        <f t="shared" ref="S60" si="256">S42/O42-1</f>
         <v>1.1055449991362876E-2</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" ref="T60:AA60" si="256">T42/P42-1</f>
+        <f t="shared" ref="T60:AA60" si="257">T42/P42-1</f>
         <v>0.10619162919405056</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>1.2431184514296589E-3</v>
       </c>
       <c r="V60" s="4">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>0.68914141414141405</v>
       </c>
       <c r="W60" s="4">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>0.1194259354177345</v>
       </c>
       <c r="X60" s="4">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>-3.9399624765478425E-2</v>
       </c>
       <c r="Y60" s="4">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>2.9443064916637063E-2</v>
       </c>
       <c r="Z60" s="4">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>6.2789654656898453E-3</v>
       </c>
       <c r="AA60" s="4">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>7.9365079365079305E-2</v>
       </c>
       <c r="AB60" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>0.23763020833333326</v>
       </c>
       <c r="AC60" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>0.20933838731909038</v>
       </c>
       <c r="AD60" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>7.4134601099390851E-2</v>
       </c>
       <c r="AE60" s="4">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>2.0786199095022662E-2</v>
       </c>
       <c r="AF60" s="4">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>-2.4592319831667542E-2</v>
       </c>
       <c r="AG60" s="4">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>-3.0000000000000138E-2</v>
       </c>
       <c r="AH60" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="AO60" s="4">
-        <f t="shared" ref="AO60:AS60" si="257">AO42/AN42-1</f>
+        <f t="shared" ref="AO60:AS60" si="258">AO42/AN42-1</f>
         <v>9.2866897783380642E-2</v>
       </c>
       <c r="AP60" s="4">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>4.0228780159569322E-2</v>
       </c>
       <c r="AQ60" s="4">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>-2.2224275747354749E-2</v>
       </c>
       <c r="AR60" s="4">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.16132690671959171</v>
       </c>
       <c r="AS60" s="4">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>2.6652018229166741E-2</v>
       </c>
       <c r="AT60" s="4">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.14640719749514486</v>
       </c>
       <c r="AU60" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>-1.6161452031114965E-2</v>
       </c>
       <c r="AV60" s="4">
-        <f t="shared" si="251"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AW60" s="4">
         <f t="shared" si="252"/>
         <v>5.0000000000000044E-2</v>
       </c>
+      <c r="AW60" s="4">
+        <f t="shared" si="253"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
       <c r="AX60" s="4">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BA60" s="1" t="s">
@@ -10746,115 +10751,115 @@
         <v>34</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" ref="G61:AA61" si="258">G46/C46-1</f>
+        <f t="shared" ref="G61:AA61" si="259">G46/C46-1</f>
         <v>-1.4152571625819843E-2</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>0.10499001996007995</v>
       </c>
       <c r="I61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>0.25</v>
       </c>
       <c r="J61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>0.1707317073170731</v>
       </c>
       <c r="K61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>7.247899159663862E-2</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>0.13511560693641611</v>
       </c>
       <c r="M61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-9.2948717948717618E-3</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>9.1666666666666563E-2</v>
       </c>
       <c r="O61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>8.6516487104146167E-2</v>
       </c>
       <c r="P61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>5.7924888605983549E-2</v>
       </c>
       <c r="Q61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>6.2115820122937482E-2</v>
       </c>
       <c r="R61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-6.312389900176163E-2</v>
       </c>
       <c r="S61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-0.10606971153846156</v>
       </c>
       <c r="T61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-1.7148014440433235E-2</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-7.3713067316478864E-2</v>
       </c>
       <c r="V61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>0.17267314321529303</v>
       </c>
       <c r="W61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>0.20067226890756307</v>
       </c>
       <c r="X61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>0.15059687786960518</v>
       </c>
       <c r="Y61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>0.13054916146004603</v>
       </c>
       <c r="Z61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>7.8300374131480499E-2</v>
       </c>
       <c r="AA61" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>9.7424412094065049E-2</v>
       </c>
       <c r="AB61" s="4">
-        <f t="shared" ref="AB61:AB62" si="259">AB46/X46-1</f>
+        <f t="shared" ref="AB61:AB62" si="260">AB46/X46-1</f>
         <v>9.7100292631018936E-2</v>
       </c>
       <c r="AC61" s="4">
-        <f t="shared" ref="AC61:AC62" si="260">AC46/Y46-1</f>
+        <f t="shared" ref="AC61:AC62" si="261">AC46/Y46-1</f>
         <v>0.15154159394997091</v>
       </c>
       <c r="AD61" s="4">
-        <f t="shared" ref="AD61:AD62" si="261">AD46/Z46-1</f>
+        <f t="shared" ref="AD61:AD62" si="262">AD46/Z46-1</f>
         <v>8.4014869888475729E-2</v>
       </c>
       <c r="AE61" s="4">
-        <f t="shared" ref="AE61:AE62" si="262">AE46/AA46-1</f>
+        <f t="shared" ref="AE61:AE62" si="263">AE46/AA46-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AF61" s="4">
-        <f t="shared" ref="AF61:AF62" si="263">AF46/AB46-1</f>
+        <f t="shared" ref="AF61:AF62" si="264">AF46/AB46-1</f>
         <v>5.3346265761395895E-3</v>
       </c>
       <c r="AG61" s="4">
-        <f t="shared" ref="AG61:AG62" si="264">AG46/AC46-1</f>
+        <f t="shared" ref="AG61:AG62" si="265">AG46/AC46-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AH61" s="4">
-        <f t="shared" ref="AH61:AH62" si="265">AH46/AD46-1</f>
+        <f t="shared" ref="AH61:AH62" si="266">AH46/AD46-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AO61" s="4">
@@ -10862,47 +10867,47 @@
         <v>0.12316576730095607</v>
       </c>
       <c r="AP61" s="4">
-        <f t="shared" ref="AP61:AS61" si="266">AP46/AO46-1</f>
+        <f t="shared" ref="AP61:AS61" si="267">AP46/AO46-1</f>
         <v>7.0633850303438939E-2</v>
       </c>
       <c r="AQ61" s="4">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>3.3380569988978204E-2</v>
       </c>
       <c r="AR61" s="4">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>-7.6946518360505589E-3</v>
       </c>
       <c r="AS61" s="4">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>0.13658349328214969</v>
       </c>
       <c r="AT61" s="4">
-        <f t="shared" ref="AT61:AT62" si="267">AT46/AS46-1</f>
+        <f t="shared" ref="AT61:AT62" si="268">AT46/AS46-1</f>
         <v>0.10625506619832481</v>
       </c>
       <c r="AU61" s="4">
-        <f t="shared" ref="AU61:AU62" si="268">AU46/AT46-1</f>
+        <f t="shared" ref="AU61:AU62" si="269">AU46/AT46-1</f>
         <v>1.8399584783538092E-2</v>
       </c>
       <c r="AV61" s="4">
-        <f t="shared" ref="AV61:AV62" si="269">AV46/AU46-1</f>
+        <f t="shared" ref="AV61:AV62" si="270">AV46/AU46-1</f>
         <v>1.9999999999999796E-2</v>
       </c>
       <c r="AW61" s="4">
-        <f t="shared" ref="AW61:AW62" si="270">AW46/AV46-1</f>
+        <f t="shared" ref="AW61:AW62" si="271">AW46/AV46-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AX61" s="4">
-        <f t="shared" ref="AX61:AX62" si="271">AX46/AW46-1</f>
+        <f t="shared" ref="AX61:AX62" si="272">AX46/AW46-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BA61" s="1" t="s">
-        <v>60</v>
+      <c r="BA61" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="BB61" s="22">
         <f>WACC!C18</f>
-        <v>5.9572846138854045E-2</v>
+        <v>7.9630150364010721E-2</v>
       </c>
     </row>
     <row r="62" spans="1:394" x14ac:dyDescent="0.25">
@@ -10910,67 +10915,67 @@
         <v>35</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" ref="G62:U62" si="272">G47/C47-1</f>
+        <f t="shared" ref="G62:U62" si="273">G47/C47-1</f>
         <v>-9.7879282218597097E-2</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>-0.18091809180918095</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>-0.63875598086124397</v>
       </c>
       <c r="J62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>8.6355785837651133E-2</v>
       </c>
       <c r="K62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.20614828209764924</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.8241758241758257E-2</v>
       </c>
       <c r="M62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>1.7549668874172184</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>-2.4642289348171698E-2</v>
       </c>
       <c r="O62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.156671664167916</v>
       </c>
       <c r="P62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.26687435098650059</v>
       </c>
       <c r="Q62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>-4.647435897435892E-2</v>
       </c>
       <c r="R62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>-1.6829665851670743</v>
       </c>
       <c r="S62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.14452365521710964</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.29508196721311486</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.41008403361344548</v>
       </c>
       <c r="V62" s="4">
-        <f t="shared" ref="V62" si="273">V47/R47-1</f>
+        <f t="shared" ref="V62" si="274">V47/R47-1</f>
         <v>-3.2828162291169449</v>
       </c>
       <c r="W62" s="4">
@@ -10994,31 +10999,31 @@
         <v>-0.20197740112994356</v>
       </c>
       <c r="AB62" s="4">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>9.1471801925722129E-2</v>
       </c>
       <c r="AC62" s="4">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>-0.13321055862492326</v>
       </c>
       <c r="AD62" s="4">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-0.16825613079019075</v>
       </c>
       <c r="AE62" s="4">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-5.3687315634218247E-2</v>
       </c>
       <c r="AF62" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0.14996849401386259</v>
       </c>
       <c r="AG62" s="4">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>-5.4405099150142133E-2</v>
       </c>
       <c r="AH62" s="4">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>0.35189189189189252</v>
       </c>
       <c r="AO62" s="4">
@@ -11026,47 +11031,47 @@
         <v>-0.21520320067382603</v>
       </c>
       <c r="AP62" s="4">
-        <f t="shared" ref="AP62:AS62" si="274">AP47/AO47-1</f>
+        <f t="shared" ref="AP62:AS62" si="275">AP47/AO47-1</f>
         <v>0.2803863697343707</v>
       </c>
       <c r="AQ62" s="4">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>-0.34723386420787927</v>
       </c>
       <c r="AR62" s="4">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>1.2269662921348314</v>
       </c>
       <c r="AS62" s="4">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>-3.7768487818941932E-2</v>
       </c>
       <c r="AT62" s="4">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>-0.11385767790262169</v>
       </c>
       <c r="AU62" s="4">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>8.4503803888419826E-2</v>
       </c>
       <c r="AV62" s="4">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>0.29421371382606254</v>
       </c>
       <c r="AW62" s="4">
-        <f t="shared" si="270"/>
-        <v>5.0000000000002709E-2</v>
+        <f t="shared" si="271"/>
+        <v>0.19127217932643248</v>
       </c>
       <c r="AX62" s="4">
-        <f t="shared" si="271"/>
-        <v>5.0000000000000266E-2</v>
+        <f t="shared" si="272"/>
+        <v>0.18044827198679214</v>
       </c>
       <c r="BA62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BB62" s="23">
         <f>NPV(BB61,AS52:OD52)</f>
-        <v>101137.65479341068</v>
+        <v>97415.585515213708</v>
       </c>
     </row>
     <row r="63" spans="1:394" x14ac:dyDescent="0.25">
@@ -11074,7 +11079,7 @@
         <v>36</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" ref="G63:J63" si="275">G52/C52-1</f>
+        <f t="shared" ref="G63:J63" si="276">G52/C52-1</f>
         <v>-0.23939151321056851</v>
       </c>
       <c r="H63" s="4">
@@ -11082,11 +11087,11 @@
         <v>-8.9073634204275498E-2</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>-0.70902716914986852</v>
       </c>
       <c r="J63" s="4">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>0.12797619047619047</v>
       </c>
       <c r="K63" s="4">
@@ -11094,95 +11099,95 @@
         <v>0.14947368421052643</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" ref="L63:V63" si="276">L52/H52-1</f>
+        <f t="shared" ref="L63:V63" si="277">L52/H52-1</f>
         <v>0.10430247718383301</v>
       </c>
       <c r="M63" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>2.3162650602409638</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>-0.13016710642040452</v>
       </c>
       <c r="O63" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.25183150183150182</v>
       </c>
       <c r="P63" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.31641086186540734</v>
       </c>
       <c r="Q63" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>-0.23069936421435056</v>
       </c>
       <c r="R63" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>-1.7987866531850354</v>
       </c>
       <c r="S63" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.11046086320409665</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.12197309417040358</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.71074380165289264</v>
       </c>
       <c r="V63" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>-2.910126582278481</v>
       </c>
       <c r="W63" s="4">
-        <f t="shared" ref="W63:W65" si="277">W52/S52-1</f>
+        <f t="shared" ref="W63:W65" si="278">W52/S52-1</f>
         <v>0.23451910408432153</v>
       </c>
       <c r="X63" s="4">
-        <f t="shared" ref="X63:X65" si="278">X52/T52-1</f>
+        <f t="shared" ref="X63:X65" si="279">X52/T52-1</f>
         <v>6.8745003996802501E-2</v>
       </c>
       <c r="Y63" s="4">
-        <f t="shared" ref="Y63:Y65" si="279">Y52/U52-1</f>
+        <f t="shared" ref="Y63:Y65" si="280">Y52/U52-1</f>
         <v>-3.6576949620427901E-2</v>
       </c>
       <c r="Z63" s="4">
-        <f t="shared" ref="Z63:AA65" si="280">Z52/V52-1</f>
+        <f t="shared" ref="Z63:AA65" si="281">Z52/V52-1</f>
         <v>-4.6388336646785988E-2</v>
       </c>
       <c r="AA63" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>-0.21664887940234789</v>
       </c>
       <c r="AB63" s="4">
-        <f t="shared" ref="AB63:AB65" si="281">AB52/X52-1</f>
+        <f t="shared" ref="AB63:AB65" si="282">AB52/X52-1</f>
         <v>-4.487658937920691E-3</v>
       </c>
       <c r="AC63" s="4">
-        <f t="shared" ref="AC63:AC65" si="282">AC52/Y52-1</f>
+        <f t="shared" ref="AC63:AC65" si="283">AC52/Y52-1</f>
         <v>-0.11174785100286533</v>
       </c>
       <c r="AD63" s="4">
-        <f t="shared" ref="AD63:AD65" si="283">AD52/Z52-1</f>
+        <f t="shared" ref="AD63:AD65" si="284">AD52/Z52-1</f>
         <v>-0.28353022932592076</v>
       </c>
       <c r="AE63" s="4">
-        <f t="shared" ref="AE63:AE65" si="284">AE52/AA52-1</f>
+        <f t="shared" ref="AE63:AE65" si="285">AE52/AA52-1</f>
         <v>-1.2261580381471404E-2</v>
       </c>
       <c r="AF63" s="4">
-        <f t="shared" ref="AF63:AF65" si="285">AF52/AB52-1</f>
+        <f t="shared" ref="AF63:AF65" si="286">AF52/AB52-1</f>
         <v>0.18557475582268967</v>
       </c>
       <c r="AG63" s="4">
-        <f t="shared" ref="AG63:AG65" si="286">AG52/AC52-1</f>
+        <f t="shared" ref="AG63:AG65" si="287">AG52/AC52-1</f>
         <v>-0.13284079454643827</v>
       </c>
       <c r="AH63" s="4">
-        <f t="shared" ref="AH63:AH65" si="287">AH52/AD52-1</f>
+        <f t="shared" ref="AH63:AH65" si="288">AH52/AD52-1</f>
         <v>0.2199903468221629</v>
       </c>
       <c r="AO63" s="4">
@@ -11190,47 +11195,47 @@
         <v>-0.24858490566037739</v>
       </c>
       <c r="AP63" s="4">
-        <f t="shared" ref="AP63:AS63" si="288">AP52/AO52-1</f>
+        <f t="shared" ref="AP63:AS63" si="289">AP52/AO52-1</f>
         <v>0.26459510357815441</v>
       </c>
       <c r="AQ63" s="4">
-        <f t="shared" si="288"/>
+        <f t="shared" si="289"/>
         <v>-0.36981881360138991</v>
       </c>
       <c r="AR63" s="4">
-        <f t="shared" si="288"/>
+        <f t="shared" si="289"/>
         <v>1.2556124458448208</v>
       </c>
       <c r="AS63" s="4">
-        <f t="shared" si="288"/>
+        <f t="shared" si="289"/>
         <v>5.5701065130085547E-2</v>
       </c>
       <c r="AT63" s="4">
-        <f t="shared" ref="AT63:AT65" si="289">AT52/AS52-1</f>
+        <f t="shared" ref="AT63:AT65" si="290">AT52/AS52-1</f>
         <v>-0.16142904399603042</v>
       </c>
       <c r="AU63" s="4">
-        <f t="shared" ref="AU63:AU65" si="290">AU52/AT52-1</f>
+        <f t="shared" ref="AU63:AU65" si="291">AU52/AT52-1</f>
         <v>5.7413700658001998E-2</v>
       </c>
       <c r="AV63" s="4">
-        <f t="shared" ref="AV63:AV65" si="291">AV52/AU52-1</f>
+        <f t="shared" ref="AV63:AV65" si="292">AV52/AU52-1</f>
         <v>0.19879164929712312</v>
       </c>
       <c r="AW63" s="4">
-        <f t="shared" ref="AW63:AW65" si="292">AW52/AV52-1</f>
-        <v>5.0000000000003375E-2</v>
+        <f t="shared" ref="AW63:AW65" si="293">AW52/AV52-1</f>
+        <v>0.23249537784617158</v>
       </c>
       <c r="AX63" s="4">
-        <f t="shared" ref="AX63:AX65" si="293">AX52/AW52-1</f>
-        <v>5.0000000000000711E-2</v>
+        <f t="shared" ref="AX63:AX65" si="294">AX52/AW52-1</f>
+        <v>0.21287681011964055</v>
       </c>
       <c r="BA63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB63" s="2">
         <f>Main!C7-Main!C8</f>
-        <v>1363</v>
+        <v>991</v>
       </c>
     </row>
     <row r="64" spans="1:394" x14ac:dyDescent="0.25">
@@ -11238,27 +11243,27 @@
         <v>37</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" ref="G64:K64" si="294">G53/C53-1</f>
+        <f t="shared" ref="G64:K64" si="295">G53/C53-1</f>
         <v>-1.8725495933056391E-2</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="294"/>
+        <f t="shared" si="295"/>
         <v>-1.9076305220883549E-2</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" si="294"/>
+        <f t="shared" si="295"/>
         <v>-2.6744944553163674E-2</v>
       </c>
       <c r="J64" s="4">
-        <f t="shared" si="294"/>
+        <f t="shared" si="295"/>
         <v>-2.2280471821756187E-2</v>
       </c>
       <c r="K64" s="4">
-        <f t="shared" si="294"/>
+        <f t="shared" si="295"/>
         <v>-2.5344385473194619E-2</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" ref="L64:V64" si="295">L53/H53-1</f>
+        <f t="shared" ref="L64:V64" si="296">L53/H53-1</f>
         <v>-2.4203744957553175E-2</v>
       </c>
       <c r="M64" s="4">
@@ -11266,87 +11271,87 @@
         <v>-1.9254204240799488E-2</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>-2.0533755788447516E-2</v>
       </c>
       <c r="O64" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>-2.2577092511013253E-2</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>-1.6227555994323462E-2</v>
       </c>
       <c r="Q64" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>-1.118290258449306E-2</v>
       </c>
       <c r="R64" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>-3.2223950233281506E-2</v>
       </c>
       <c r="S64" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>-2.6291079812207352E-3</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>9.4706472654288998E-3</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>1.5895953757225634E-2</v>
       </c>
       <c r="V64" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>3.805360930770707E-2</v>
       </c>
       <c r="W64" s="4">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>1.6506621477436756E-2</v>
       </c>
       <c r="X64" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>4.9083566324945593E-3</v>
       </c>
       <c r="Y64" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-3.8344981136743117E-3</v>
       </c>
       <c r="Z64" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>-1.2322744442380351E-2</v>
       </c>
       <c r="AA64" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>-2.0869350456902858E-2</v>
       </c>
       <c r="AB64" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>-2.7822431062198616E-2</v>
       </c>
       <c r="AC64" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>-2.8496926802011657E-2</v>
       </c>
       <c r="AD64" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>-2.4263322884012561E-2</v>
       </c>
       <c r="AE64" s="4">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>-2.6800353134064814E-2</v>
       </c>
       <c r="AF64" s="4">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>-2.5629610786059631E-2</v>
       </c>
       <c r="AG64" s="4">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AH64" s="4">
-        <f t="shared" si="287"/>
+        <f t="shared" si="288"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AO64" s="4">
@@ -11354,47 +11359,47 @@
         <v>-2.2280471821756187E-2</v>
       </c>
       <c r="AP64" s="4">
-        <f t="shared" ref="AP64:AS64" si="296">AP53/AO53-1</f>
+        <f t="shared" ref="AP64:AS64" si="297">AP53/AO53-1</f>
         <v>-2.0533755788447516E-2</v>
       </c>
       <c r="AQ64" s="4">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>-3.2223950233281506E-2</v>
       </c>
       <c r="AR64" s="4">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>3.805360930770707E-2</v>
       </c>
       <c r="AS64" s="4">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>-1.2322744442380351E-2</v>
       </c>
       <c r="AT64" s="4">
-        <f t="shared" si="289"/>
+        <f t="shared" si="290"/>
         <v>-2.4263322884012561E-2</v>
       </c>
       <c r="AU64" s="4">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AV64" s="4">
-        <f t="shared" si="291"/>
+        <f t="shared" si="292"/>
         <v>-9.9999999999998979E-3</v>
       </c>
       <c r="AW64" s="4">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="AX64" s="4">
-        <f t="shared" si="293"/>
+        <f t="shared" si="294"/>
         <v>-1.000000000000012E-2</v>
       </c>
       <c r="BA64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BB64" s="2">
         <f>BB62+BB63</f>
-        <v>102500.65479341068</v>
+        <v>98406.585515213708</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.25">
@@ -11402,27 +11407,27 @@
         <v>38</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" ref="G65:K65" si="297">G54/C54-1</f>
+        <f t="shared" ref="G65:K65" si="298">G54/C54-1</f>
         <v>-0.22487694968426297</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="297"/>
+        <f t="shared" si="298"/>
         <v>-7.135858717242427E-2</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="297"/>
+        <f t="shared" si="298"/>
         <v>-0.70103126696162765</v>
       </c>
       <c r="J65" s="4">
-        <f t="shared" si="297"/>
+        <f t="shared" si="298"/>
         <v>0.15368074173369073</v>
       </c>
       <c r="K65" s="4">
-        <f t="shared" si="297"/>
+        <f t="shared" si="298"/>
         <v>0.17936393848056276</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" ref="L65:V65" si="298">L54/H54-1</f>
+        <f t="shared" ref="L65:V65" si="299">L54/H54-1</f>
         <v>0.13169370293985838</v>
       </c>
       <c r="M65" s="4">
@@ -11430,87 +11435,87 @@
         <v>2.3813706615727326</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>-0.1119317294290314</v>
       </c>
       <c r="O65" s="4">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>0.28074704638084924</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>0.33812536617239419</v>
       </c>
       <c r="Q65" s="4">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>-0.22199905544070042</v>
       </c>
       <c r="R65" s="4">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>-1.8253837790029852</v>
       </c>
       <c r="S65" s="4">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>0.11338808069324324</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>0.11144697194488451</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>0.68397540646344468</v>
       </c>
       <c r="V65" s="4">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>-2.8401039841789792</v>
       </c>
       <c r="W65" s="4">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0.21447227002812408</v>
       </c>
       <c r="X65" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>6.3524844771147171E-2</v>
       </c>
       <c r="Y65" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-3.2868485652989277E-2</v>
       </c>
       <c r="Z65" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>-3.4490611191783538E-2</v>
       </c>
       <c r="AA65" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>-0.19995240577629125</v>
       </c>
       <c r="AB65" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>2.4002582316081877E-2</v>
       </c>
       <c r="AC65" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>-8.5692908748923213E-2</v>
       </c>
       <c r="AD65" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>-0.26571401129270933</v>
       </c>
       <c r="AE65" s="4">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.4939147172333689E-2</v>
       </c>
       <c r="AF65" s="4">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0.21675983686156108</v>
       </c>
       <c r="AG65" s="4">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>-0.11514366790452879</v>
       </c>
       <c r="AH65" s="4">
-        <f t="shared" si="287"/>
+        <f t="shared" si="288"/>
         <v>0.24488810900220681</v>
       </c>
       <c r="AO65" s="4">
@@ -11518,49 +11523,49 @@
         <v>-0.23146150538722254</v>
       </c>
       <c r="AP65" s="4">
-        <f t="shared" ref="AP65:AS65" si="299">AP54/AO54-1</f>
+        <f t="shared" ref="AP65:AS65" si="300">AP54/AO54-1</f>
         <v>0.29110636640277887</v>
       </c>
       <c r="AQ65" s="4">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>-0.34883572852364486</v>
       </c>
       <c r="AR65" s="4">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>1.1729248139208543</v>
       </c>
       <c r="AS65" s="4">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>6.8872507886254208E-2</v>
       </c>
       <c r="AT65" s="4">
-        <f t="shared" si="289"/>
+        <f t="shared" si="290"/>
         <v>-0.14057657596457529</v>
       </c>
       <c r="AU65" s="4">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>7.899357210000213E-2</v>
       </c>
       <c r="AV65" s="4">
-        <f t="shared" si="291"/>
+        <f t="shared" si="292"/>
         <v>0.21090065585568007</v>
       </c>
       <c r="AW65" s="4">
-        <f t="shared" si="292"/>
-        <v>6.0606060606063883E-2</v>
+        <f t="shared" si="293"/>
+        <v>0.24494482610724422</v>
       </c>
       <c r="AX65" s="4">
-        <f t="shared" si="293"/>
-        <v>6.060606060606144E-2</v>
+        <f t="shared" si="294"/>
+        <v>0.22512809102994003</v>
       </c>
       <c r="AY65" s="1"/>
       <c r="AZ65" s="23"/>
       <c r="BA65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BB65" s="13">
         <f>BB64/Main!C5</f>
-        <v>65.503997183928092</v>
+        <v>64.229871101895256</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.25">
@@ -11568,67 +11573,67 @@
         <v>39</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" ref="C66:R66" si="300">C43/C41</f>
+        <f t="shared" ref="C66:R66" si="301">C43/C41</f>
         <v>0.45502703895817237</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.44205378973105136</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.44473434535104367</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.44059006569090697</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.43682469680264607</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.42997428103811081</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.39770703472840607</v>
       </c>
       <c r="J66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.44723669424864643</v>
       </c>
       <c r="K66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.44199839163650984</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.43791337742692554</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.45146186661117471</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.45492930086410055</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.45694183864915572</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.4400542320356382</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.44269596199524941</v>
       </c>
       <c r="R66" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.37272295263741484</v>
       </c>
       <c r="S66" s="4">
@@ -11636,27 +11641,27 @@
         <v>0.44751746271474419</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" ref="T66:V66" si="301">T43/T41</f>
+        <f t="shared" ref="T66:V66" si="302">T43/T41</f>
         <v>0.43111269234190164</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v>0.45563387081201118</v>
       </c>
       <c r="V66" s="4">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v>0.45811730395333766</v>
       </c>
       <c r="W66" s="4">
-        <f t="shared" ref="W66:Y66" si="302">W43/W41</f>
+        <f t="shared" ref="W66:Y66" si="303">W43/W41</f>
         <v>0.46505551926845201</v>
       </c>
       <c r="X66" s="4">
-        <f t="shared" si="302"/>
+        <f t="shared" si="303"/>
         <v>0.45901206304481817</v>
       </c>
       <c r="Y66" s="4">
-        <f t="shared" si="302"/>
+        <f t="shared" si="303"/>
         <v>0.4661024744733695</v>
       </c>
       <c r="Z66" s="4">
@@ -11668,31 +11673,31 @@
         <v>0.44257901789233073</v>
       </c>
       <c r="AB66" s="4">
-        <f t="shared" ref="AB66:AD66" si="303">AB43/AB41</f>
+        <f t="shared" ref="AB66:AD66" si="304">AB43/AB41</f>
         <v>0.42891475779196397</v>
       </c>
       <c r="AC66" s="4">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>0.43349475383373687</v>
       </c>
       <c r="AD66" s="4">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>0.43625730994152045</v>
       </c>
       <c r="AE66" s="4">
-        <f t="shared" ref="AE66:AF66" si="304">AE43/AE41</f>
+        <f t="shared" ref="AE66:AF66" si="305">AE43/AE41</f>
         <v>0.44207434886776414</v>
       </c>
       <c r="AF66" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.44599641469973111</v>
       </c>
       <c r="AG66" s="4">
-        <f t="shared" ref="AG66:AH66" si="305">AG43/AG41</f>
+        <f t="shared" ref="AG66:AH66" si="306">AG43/AG41</f>
         <v>0.43927541961094363</v>
       </c>
       <c r="AH66" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="306"/>
         <v>0.46389175553262246</v>
       </c>
       <c r="AN66" s="4">
@@ -11700,47 +11705,47 @@
         <v>0.445764192139738</v>
       </c>
       <c r="AO66" s="4">
-        <f t="shared" ref="AO66:AS66" si="306">AO43/AO41</f>
+        <f t="shared" ref="AO66:AS66" si="307">AO43/AO41</f>
         <v>0.42835948017693765</v>
       </c>
       <c r="AP66" s="4">
-        <f t="shared" si="306"/>
+        <f t="shared" si="307"/>
         <v>0.44671114860546568</v>
       </c>
       <c r="AQ66" s="4">
-        <f t="shared" si="306"/>
+        <f t="shared" si="307"/>
         <v>0.43421650669732376</v>
       </c>
       <c r="AR66" s="4">
-        <f t="shared" si="306"/>
+        <f t="shared" si="307"/>
         <v>0.44820153576721</v>
       </c>
       <c r="AS66" s="4">
-        <f t="shared" si="306"/>
+        <f t="shared" si="307"/>
         <v>0.45983729394134021</v>
       </c>
       <c r="AT66" s="4">
-        <f t="shared" ref="AT66:AX66" si="307">AT43/AT41</f>
+        <f t="shared" ref="AT66:AX66" si="308">AT43/AT41</f>
         <v>0.43524610969014194</v>
       </c>
       <c r="AU66" s="4">
-        <f t="shared" si="307"/>
+        <f t="shared" si="308"/>
         <v>0.44797005666266421</v>
       </c>
       <c r="AV66" s="4">
-        <f t="shared" si="307"/>
+        <f t="shared" si="308"/>
         <v>0.45863412203362286</v>
       </c>
       <c r="AW66" s="4">
-        <f t="shared" si="307"/>
-        <v>0.45863412203362308</v>
+        <f t="shared" si="308"/>
+        <v>0.46937285425524933</v>
       </c>
       <c r="AX66" s="4">
-        <f t="shared" si="307"/>
-        <v>0.45863412203362314</v>
+        <f t="shared" si="308"/>
+        <v>0.48017530823788335</v>
       </c>
       <c r="BA66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BB66" s="13">
         <f>Main!C4</f>
@@ -11752,67 +11757,67 @@
         <v>40</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" ref="C67:R67" si="308">C47/C41</f>
+        <f t="shared" ref="C67:R67" si="309">C47/C41</f>
         <v>0.13530515395651693</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.13581907090464548</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.14871916508538899</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.13345626368560562</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.12194046306504962</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.10638297872340426</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>5.0422974176313445E-2</v>
       </c>
       <c r="J67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.12851159464705281</v>
       </c>
       <c r="K67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.13409730599115399</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.10273095796885001</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.12985121215274165</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.12048311076197958</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.14474671669793621</v>
       </c>
       <c r="P67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.11814836335463877</v>
       </c>
       <c r="Q67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.11777513855898654</v>
       </c>
       <c r="R67" s="4">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>-0.13274196103278948</v>
       </c>
       <c r="S67" s="4">
@@ -11820,27 +11825,27 @@
         <v>0.16669813101755709</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" ref="T67:V67" si="309">T47/T41</f>
+        <f t="shared" ref="T67:V67" si="310">T47/T41</f>
         <v>0.14053188650716</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0.16201602780728011</v>
       </c>
       <c r="V67" s="4">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0.15497407647440051</v>
       </c>
       <c r="W67" s="4">
-        <f t="shared" ref="W67:Y67" si="310">W47/W41</f>
+        <f t="shared" ref="W67:Y67" si="311">W47/W41</f>
         <v>0.17341606792945788</v>
       </c>
       <c r="X67" s="4">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>0.12802676763229726</v>
       </c>
       <c r="Y67" s="4">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>0.14984822003495538</v>
       </c>
       <c r="Z67" s="4">
@@ -11852,31 +11857,31 @@
         <v>0.13360132419011586</v>
       </c>
       <c r="AB67" s="4">
-        <f t="shared" ref="AB67:AD67" si="311">AB47/AB41</f>
+        <f t="shared" ref="AB67:AD67" si="312">AB47/AB41</f>
         <v>0.11918888471648517</v>
       </c>
       <c r="AC67" s="4">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.11396287328490719</v>
       </c>
       <c r="AD67" s="4">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>9.5204678362573097E-2</v>
       </c>
       <c r="AE67" s="4">
-        <f t="shared" ref="AE67:AF67" si="312">AE47/AE41</f>
+        <f t="shared" ref="AE67:AF67" si="313">AE47/AE41</f>
         <v>0.12396630342375763</v>
       </c>
       <c r="AF67" s="4">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.1363161039737078</v>
       </c>
       <c r="AG67" s="4">
-        <f t="shared" ref="AG67:AH67" si="313">AG47/AG41</f>
+        <f t="shared" ref="AG67:AH67" si="314">AG47/AG41</f>
         <v>0.10996195088204769</v>
       </c>
       <c r="AH67" s="4">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>0.12618277720444909</v>
       </c>
       <c r="AN67" s="4">
@@ -11884,51 +11889,51 @@
         <v>0.13825327510917029</v>
       </c>
       <c r="AO67" s="4">
-        <f t="shared" ref="AO67:AS67" si="314">AO47/AO41</f>
+        <f t="shared" ref="AO67:AS67" si="315">AO47/AO41</f>
         <v>0.10239854933098881</v>
       </c>
       <c r="AP67" s="4">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.12199299537285579</v>
       </c>
       <c r="AQ67" s="4">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>8.3282089671951443E-2</v>
       </c>
       <c r="AR67" s="4">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.15575463649018814</v>
       </c>
       <c r="AS67" s="4">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.14290301862556198</v>
       </c>
       <c r="AT67" s="4">
-        <f t="shared" ref="AT67:AX67" si="315">AT47/AT41</f>
+        <f t="shared" ref="AT67:AX67" si="316">AT47/AT41</f>
         <v>0.11548899779370131</v>
       </c>
       <c r="AU67" s="4">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.12443749551412499</v>
       </c>
       <c r="AV67" s="4">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.15041675093687337</v>
       </c>
       <c r="AW67" s="4">
-        <f t="shared" si="315"/>
-        <v>0.15041675093687368</v>
+        <f t="shared" si="316"/>
+        <v>0.16726939603881477</v>
       </c>
       <c r="AX67" s="4">
-        <f t="shared" si="315"/>
-        <v>0.15041675093687373</v>
+        <f t="shared" si="316"/>
+        <v>0.18422204179272969</v>
       </c>
       <c r="BA67" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BB67" s="6">
         <f>BB65/BB66-1</f>
-        <v>-0.37775247284194835</v>
+        <v>-0.38985588389954162</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.25">
@@ -11936,67 +11941,67 @@
         <v>29</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" ref="C68:R68" si="316">C51/C50</f>
+        <f t="shared" ref="C68:R68" si="317">C51/C50</f>
         <v>2.4980483996877439E-2</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.24416517055655296</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.13756613756613756</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.13698630136986301</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.11380597014925373</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.12741751990898748</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.19024390243902439</v>
       </c>
       <c r="J68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>6.4197530864197536E-2</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.14015748031496064</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.15045135406218657</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.14717273431448488</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.20434432823813356</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.12427930813581038</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.10728582866293035</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>3.8592508513053347E-2</v>
       </c>
       <c r="R68" s="4">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>1.7412935323383085E-2</v>
       </c>
       <c r="S68" s="4">
@@ -12004,31 +12009,31 @@
         <v>0.11486880466472303</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" ref="T68:V68" si="317">T51/T50</f>
+        <f t="shared" ref="T68:V68" si="318">T51/T50</f>
         <v>0.1407967032967033</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.11430317848410758</v>
       </c>
       <c r="V68" s="4">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.18608414239482202</v>
       </c>
       <c r="W68" s="4">
-        <f t="shared" ref="W68:Z68" si="318">W51/W50</f>
+        <f t="shared" ref="W68:Z68" si="319">W51/W50</f>
         <v>0.11016144349477683</v>
       </c>
       <c r="X68" s="4">
-        <f t="shared" si="318"/>
+        <f t="shared" si="319"/>
         <v>0.10926049300466356</v>
       </c>
       <c r="Y68" s="4">
-        <f t="shared" si="318"/>
+        <f t="shared" si="319"/>
         <v>0.16407185628742516</v>
       </c>
       <c r="Z68" s="4">
-        <f t="shared" si="318"/>
+        <f t="shared" si="319"/>
         <v>-4.730713245997089E-2</v>
       </c>
       <c r="AA68" s="4">
@@ -12036,23 +12041,23 @@
         <v>0.19693654266958424</v>
       </c>
       <c r="AB68" s="4">
-        <f t="shared" ref="AA68:AD68" si="319">AB51/AB50</f>
+        <f t="shared" ref="AB68:AD68" si="320">AB51/AB50</f>
         <v>0.19333333333333333</v>
       </c>
       <c r="AC68" s="4">
-        <f t="shared" si="319"/>
+        <f t="shared" si="320"/>
         <v>0.16046039268788084</v>
       </c>
       <c r="AD68" s="4">
-        <f t="shared" si="319"/>
+        <f t="shared" si="320"/>
         <v>0.1725521669341894</v>
       </c>
       <c r="AE68" s="4">
-        <f t="shared" ref="AE68:AF68" si="320">AE51/AE50</f>
+        <f t="shared" ref="AE68:AF68" si="321">AE51/AE50</f>
         <v>0.12014563106796117</v>
       </c>
       <c r="AF68" s="4">
-        <f t="shared" si="320"/>
+        <f t="shared" si="321"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="AG68" s="4">
@@ -12064,49 +12069,52 @@
         <v>0.1329394568171389</v>
       </c>
       <c r="AN68" s="4">
-        <f t="shared" ref="AN68:AX68" si="321">AN51/AN50</f>
+        <f t="shared" ref="AN68:AX68" si="322">AN51/AN50</f>
         <v>0.13221449038067951</v>
       </c>
       <c r="AO68" s="4">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.10906040268456375</v>
       </c>
       <c r="AP68" s="4">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.16079983336804832</v>
       </c>
       <c r="AQ68" s="4">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.12054035330793211</v>
       </c>
       <c r="AR68" s="4">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.14021918630836211</v>
       </c>
       <c r="AS68" s="4">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>9.0963764847391368E-2</v>
       </c>
       <c r="AT68" s="4">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.18238993710691823</v>
       </c>
       <c r="AU68" s="4">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.14302676181998472</v>
       </c>
       <c r="AV68" s="4">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.21</v>
       </c>
       <c r="AW68" s="4">
-        <f t="shared" si="321"/>
-        <v>0.20999999999999949</v>
+        <f t="shared" si="322"/>
+        <v>0.1846468685396378</v>
       </c>
       <c r="AX68" s="4">
-        <f t="shared" si="321"/>
-        <v>0.20999999999999938</v>
-      </c>
+        <f t="shared" si="322"/>
+        <v>0.16391517156729041</v>
+      </c>
+    </row>
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AP75" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -12128,7 +12136,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12146,7 +12154,7 @@
       </c>
       <c r="C3" s="2">
         <f>Main!C8</f>
-        <v>9439</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -12155,7 +12163,7 @@
       </c>
       <c r="C4" s="2">
         <f>Main!C6</f>
-        <v>164726.49599999998</v>
+        <v>161284.16699999999</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -12164,7 +12172,7 @@
       </c>
       <c r="C5" s="2">
         <f>+C3+C4</f>
-        <v>174165.49599999998</v>
+        <v>170220.16699999999</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -12173,7 +12181,7 @@
       </c>
       <c r="C6" s="3">
         <f>C3/C5</f>
-        <v>5.4195579588278503E-2</v>
+        <v>5.2496717383669358E-2</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -12182,7 +12190,7 @@
       </c>
       <c r="C7" s="3">
         <f>C4/C5</f>
-        <v>0.94580442041172152</v>
+        <v>0.94750328261633066</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -12190,11 +12198,11 @@
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <f>AVERAGE(DCF!AN68:AS68)</f>
-        <v>0.12563300514949619</v>
+        <f>AVERAGE(DCF!AN68:AT68)</f>
+        <v>0.13374113828627077</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -12202,10 +12210,11 @@
         <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>205</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>104</v>
+        <f>DCF!AT48</f>
+        <v>-6</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -12214,7 +12223,7 @@
       </c>
       <c r="C11" s="3">
         <f>(C10*(1-C9))/C3</f>
-        <v>1.898985421595013E-2</v>
+        <v>-5.8164202890357837E-4</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -12223,7 +12232,10 @@
       </c>
       <c r="C13" s="3">
         <f>'[1]T-Bond Yields'!$C$12</f>
-        <v>4.1500000000000002E-2</v>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -12233,8 +12245,8 @@
       <c r="C14" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>108</v>
+      <c r="D14" s="33" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -12242,7 +12254,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
@@ -12254,7 +12266,7 @@
       </c>
       <c r="C16" s="3">
         <f>(C13+C14*(C15-C13))</f>
-        <v>6.2035E-2</v>
+        <v>8.4070000000000006E-2</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -12263,7 +12275,7 @@
       </c>
       <c r="C18" s="6">
         <f>(C7*C16)+(C6*C11)*(1-C9)</f>
-        <v>5.9572846138854045E-2</v>
+        <v>7.9630150364010721E-2</v>
       </c>
     </row>
   </sheetData>
